--- a/public/ICICI Bank Ltd._Governance.xlsx
+++ b/public/ICICI Bank Ltd._Governance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jithesh\Downloads\ICICI Bank Ltd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8C6D32-496D-44AB-B774-986ECEF74151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company Info" sheetId="2" r:id="rId1"/>
@@ -26,25 +27,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Matrix-KMP'!$A$1:$BF$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Standalone '!$A$1:$AL$211</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6199" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6205" uniqueCount="957">
   <si>
     <t>Key Issues</t>
   </si>
@@ -2538,9 +2531,6 @@
   </si>
   <si>
     <t>96379_2019_FINR001</t>
-  </si>
-  <si>
-    <t>Of the scrutineers appointed under this Article, one shall always be a Member (not being an officer or employee of the Company) present at the General Meeting, provided that such a Member is available and willing to be appointed.</t>
   </si>
   <si>
     <t>11,60</t>
@@ -2899,11 +2889,35 @@
   <si>
     <t>Poornashree</t>
   </si>
+  <si>
+    <t>Mr. Alwyn D’Souza of Alwyn D’ Souza &amp; Co., Practising Company Secretaries has been appointed as the Scrutinizer to scrutinize the remote e-voting process as well as the e-voting process during the AGM in a fair and transparent manner.</t>
+  </si>
+  <si>
+    <t>Annual general meeting_2020</t>
+  </si>
+  <si>
+    <t>Annual general meeting_2019</t>
+  </si>
+  <si>
+    <t>Mr. Alwyn D’Souza of Alwyn D’ Souza &amp; Co., Practising Company Secretaries has been appointed as the Scrutinizer to scrutinize the remote e-voting process as well as the electronic voting process at the AGM in a fair and transparent manner.</t>
+  </si>
+  <si>
+    <t>Terms of Reference The functions of the Committee include approval and rejection of transfer or transmission of shares, bonds, debentures, issue of duplicate certificates, allotment of securities from time to time, redressal and resolution of grievances of security holders, delegation of authority for opening and operation of bank accounts for payment of interest/dividend. Composition There were four Meetings of the Committee during the year – April 25, 2019, August 16, 2019, October 25, 2019 and January 24, 2020. The details of the composition of the Committee and attendance at its Meetings held during the year are set out in the following table:</t>
+  </si>
+  <si>
+    <t>11,75</t>
+  </si>
+  <si>
+    <t>Terms of Reference The functions of the Committee include approval and rejection of transfer or transmission of shares, bonds, debentures, issue of duplicate certificates, allotment of securities from time to time, redressal and resolution of grievances of security holders, delegation of authority for opening and operation of bank accounts for payment of interest/dividend. Composition There were four Meetings of the Committee during the year – April 26, 2018, July 26, 2018, October 26, 2018 and January 29, 2019. The details of the composition of the Committee and attendance at its Meetings held during the year are set out in the following table:</t>
+  </si>
+  <si>
+    <t>12,71</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy"/>
@@ -3683,6 +3697,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3711,21 +3734,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 2" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="69">
@@ -4751,48 +4765,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="133" t="s">
+      <c r="E1" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="125" t="s">
         <v>713</v>
       </c>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="125" t="s">
         <v>714</v>
       </c>
     </row>
@@ -4815,11 +4829,11 @@
       <c r="F2" s="72" t="s">
         <v>751</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="127" t="s">
         <v>752</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -4827,7 +4841,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet3!$A$2:$A$502</xm:f>
           </x14:formula1>
@@ -4840,16 +4854,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A502"/>
   <sheetViews>
     <sheetView topLeftCell="A489" workbookViewId="0">
       <selection sqref="A1:A502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="107.25" customWidth="1"/>
+    <col min="1" max="1" width="107.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4862,12 +4876,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="60">
+    <row r="3" spans="1:1" ht="57.6">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30">
+    <row r="4" spans="1:1" ht="28.8">
       <c r="A4" s="8" t="s">
         <v>70</v>
       </c>
@@ -4897,7 +4911,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="45">
+    <row r="10" spans="1:1" ht="43.2">
       <c r="A10" s="8" t="s">
         <v>75</v>
       </c>
@@ -4927,7 +4941,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30">
+    <row r="16" spans="1:1" ht="28.8">
       <c r="A16" s="8" t="s">
         <v>81</v>
       </c>
@@ -4952,7 +4966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30">
+    <row r="21" spans="1:1" ht="28.8">
       <c r="A21" s="8" t="s">
         <v>81</v>
       </c>
@@ -4997,12 +5011,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30">
+    <row r="30" spans="1:1" ht="28.8">
       <c r="A30" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="60">
+    <row r="31" spans="1:1" ht="57.6">
       <c r="A31" s="8" t="s">
         <v>69</v>
       </c>
@@ -5027,7 +5041,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="30">
+    <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
         <v>95</v>
       </c>
@@ -5082,7 +5096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="30">
+    <row r="47" spans="1:1" ht="28.8">
       <c r="A47" s="8" t="s">
         <v>101</v>
       </c>
@@ -5097,7 +5111,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="30">
+    <row r="50" spans="1:1" ht="28.8">
       <c r="A50" s="8" t="s">
         <v>103</v>
       </c>
@@ -5192,7 +5206,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="45">
+    <row r="69" spans="1:1" ht="28.8">
       <c r="A69" s="8" t="s">
         <v>113</v>
       </c>
@@ -5317,7 +5331,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="30">
+    <row r="94" spans="1:1" ht="28.8">
       <c r="A94" s="8" t="s">
         <v>128</v>
       </c>
@@ -5347,7 +5361,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="30">
+    <row r="100" spans="1:1" ht="28.8">
       <c r="A100" s="8" t="s">
         <v>131</v>
       </c>
@@ -5362,7 +5376,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="45">
+    <row r="103" spans="1:1" ht="28.8">
       <c r="A103" s="8" t="s">
         <v>113</v>
       </c>
@@ -5402,7 +5416,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="30">
+    <row r="111" spans="1:1" ht="28.8">
       <c r="A111" s="8" t="s">
         <v>135</v>
       </c>
@@ -5457,7 +5471,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="30">
+    <row r="122" spans="1:1" ht="28.8">
       <c r="A122" s="8" t="s">
         <v>103</v>
       </c>
@@ -5557,7 +5571,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="45">
+    <row r="142" spans="1:1" ht="43.2">
       <c r="A142" s="8" t="s">
         <v>148</v>
       </c>
@@ -5587,7 +5601,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="30">
+    <row r="148" spans="1:1" ht="28.8">
       <c r="A148" s="8" t="s">
         <v>91</v>
       </c>
@@ -5637,7 +5651,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="30">
+    <row r="158" spans="1:1" ht="28.8">
       <c r="A158" s="8" t="s">
         <v>81</v>
       </c>
@@ -5747,7 +5761,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="30">
+    <row r="180" spans="1:1" ht="28.8">
       <c r="A180" s="8" t="s">
         <v>162</v>
       </c>
@@ -5767,7 +5781,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="30">
+    <row r="184" spans="1:1" ht="28.8">
       <c r="A184" s="8" t="s">
         <v>81</v>
       </c>
@@ -5797,7 +5811,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="30">
+    <row r="190" spans="1:1" ht="28.8">
       <c r="A190" s="8" t="s">
         <v>128</v>
       </c>
@@ -5862,7 +5876,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="75">
+    <row r="203" spans="1:1" ht="72">
       <c r="A203" s="8" t="s">
         <v>169</v>
       </c>
@@ -5882,7 +5896,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="45">
+    <row r="207" spans="1:1" ht="28.8">
       <c r="A207" s="8" t="s">
         <v>113</v>
       </c>
@@ -5977,7 +5991,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="30">
+    <row r="226" spans="1:1">
       <c r="A226" s="8" t="s">
         <v>95</v>
       </c>
@@ -6032,7 +6046,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="45">
+    <row r="237" spans="1:1" ht="28.8">
       <c r="A237" s="8" t="s">
         <v>113</v>
       </c>
@@ -6052,7 +6066,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="30">
+    <row r="241" spans="1:1" ht="28.8">
       <c r="A241" s="8" t="s">
         <v>81</v>
       </c>
@@ -6137,7 +6151,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="30">
+    <row r="258" spans="1:1" ht="28.8">
       <c r="A258" s="8" t="s">
         <v>187</v>
       </c>
@@ -6157,7 +6171,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="30">
+    <row r="262" spans="1:1" ht="28.8">
       <c r="A262" s="8" t="s">
         <v>187</v>
       </c>
@@ -6207,7 +6221,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="30">
+    <row r="272" spans="1:1">
       <c r="A272" s="8" t="s">
         <v>95</v>
       </c>
@@ -6287,7 +6301,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="30">
+    <row r="288" spans="1:1" ht="28.8">
       <c r="A288" s="8" t="s">
         <v>197</v>
       </c>
@@ -6347,7 +6361,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="30">
+    <row r="300" spans="1:1" ht="28.8">
       <c r="A300" s="8" t="s">
         <v>81</v>
       </c>
@@ -6392,7 +6406,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="309" spans="1:1" ht="45">
+    <row r="309" spans="1:1" ht="28.8">
       <c r="A309" s="8" t="s">
         <v>113</v>
       </c>
@@ -6437,7 +6451,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="318" spans="1:1" ht="30">
+    <row r="318" spans="1:1" ht="28.8">
       <c r="A318" s="8" t="s">
         <v>208</v>
       </c>
@@ -6497,7 +6511,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="330" spans="1:1" ht="45">
+    <row r="330" spans="1:1" ht="43.2">
       <c r="A330" s="8" t="s">
         <v>75</v>
       </c>
@@ -6602,7 +6616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="30">
+    <row r="351" spans="1:1">
       <c r="A351" s="8" t="s">
         <v>95</v>
       </c>
@@ -6632,7 +6646,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="357" spans="1:1" ht="30">
+    <row r="357" spans="1:1" ht="28.8">
       <c r="A357" s="8" t="s">
         <v>81</v>
       </c>
@@ -6752,7 +6766,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="381" spans="1:1" ht="30">
+    <row r="381" spans="1:1" ht="28.8">
       <c r="A381" s="8" t="s">
         <v>227</v>
       </c>
@@ -6787,7 +6801,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="388" spans="1:1" ht="45">
+    <row r="388" spans="1:1" ht="28.8">
       <c r="A388" s="8" t="s">
         <v>113</v>
       </c>
@@ -6877,7 +6891,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="406" spans="1:1" ht="60">
+    <row r="406" spans="1:1" ht="57.6">
       <c r="A406" s="8" t="s">
         <v>69</v>
       </c>
@@ -7022,7 +7036,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="435" spans="1:1" ht="45">
+    <row r="435" spans="1:1" ht="28.8">
       <c r="A435" s="8" t="s">
         <v>244</v>
       </c>
@@ -7057,7 +7071,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="442" spans="1:1" ht="30">
+    <row r="442" spans="1:1" ht="28.8">
       <c r="A442" s="8" t="s">
         <v>246</v>
       </c>
@@ -7157,7 +7171,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="462" spans="1:1" ht="30">
+    <row r="462" spans="1:1" ht="28.8">
       <c r="A462" s="8" t="s">
         <v>227</v>
       </c>
@@ -7257,7 +7271,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="482" spans="1:1" ht="30">
+    <row r="482" spans="1:1" ht="28.8">
       <c r="A482" s="8" t="s">
         <v>256</v>
       </c>
@@ -7272,7 +7286,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="485" spans="1:1" ht="30">
+    <row r="485" spans="1:1" ht="28.8">
       <c r="A485" s="8" t="s">
         <v>208</v>
       </c>
@@ -7302,7 +7316,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="491" spans="1:1" ht="30">
+    <row r="491" spans="1:1" ht="28.8">
       <c r="A491" s="8" t="s">
         <v>187</v>
       </c>
@@ -7368,56 +7382,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL211"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="50" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="50" customWidth="1"/>
     <col min="3" max="3" width="9" style="50" customWidth="1"/>
     <col min="4" max="4" width="21" style="50" customWidth="1"/>
     <col min="5" max="5" width="25" style="50" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="50" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="50"/>
+    <col min="6" max="6" width="10.09765625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="10.69921875" style="50"/>
     <col min="9" max="9" width="13" style="50" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="50" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="17.375" style="50" customWidth="1"/>
-    <col min="13" max="13" width="8.125" style="50" customWidth="1"/>
-    <col min="14" max="14" width="11.75" style="50" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="50" customWidth="1"/>
-    <col min="16" max="16" width="10.75" style="50" customWidth="1"/>
-    <col min="17" max="17" width="9.25" style="50" customWidth="1"/>
-    <col min="18" max="18" width="8.125" style="50" customWidth="1"/>
-    <col min="19" max="19" width="9.25" style="50" customWidth="1"/>
-    <col min="20" max="20" width="30.25" style="50" customWidth="1"/>
-    <col min="21" max="21" width="22.375" style="50" customWidth="1"/>
-    <col min="22" max="22" width="23.75" style="67" customWidth="1"/>
+    <col min="10" max="10" width="15.09765625" style="50" customWidth="1"/>
+    <col min="11" max="11" width="20.59765625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="17.3984375" style="50" customWidth="1"/>
+    <col min="13" max="13" width="8.09765625" style="50" customWidth="1"/>
+    <col min="14" max="14" width="11.69921875" style="50" customWidth="1"/>
+    <col min="15" max="15" width="19.3984375" style="50" customWidth="1"/>
+    <col min="16" max="16" width="10.69921875" style="50" customWidth="1"/>
+    <col min="17" max="17" width="9.19921875" style="50" customWidth="1"/>
+    <col min="18" max="18" width="8.09765625" style="50" customWidth="1"/>
+    <col min="19" max="19" width="9.19921875" style="50" customWidth="1"/>
+    <col min="20" max="20" width="30.19921875" style="50" customWidth="1"/>
+    <col min="21" max="21" width="22.3984375" style="50" customWidth="1"/>
+    <col min="22" max="22" width="23.69921875" style="67" customWidth="1"/>
     <col min="23" max="23" width="24.5" style="50" customWidth="1"/>
-    <col min="24" max="24" width="35.75" style="50" customWidth="1"/>
-    <col min="25" max="25" width="28.75" style="50" customWidth="1"/>
-    <col min="26" max="26" width="31.25" style="50" customWidth="1"/>
-    <col min="27" max="27" width="25.25" style="50" customWidth="1"/>
+    <col min="24" max="24" width="35.69921875" style="50" customWidth="1"/>
+    <col min="25" max="25" width="28.69921875" style="50" customWidth="1"/>
+    <col min="26" max="26" width="31.19921875" style="50" customWidth="1"/>
+    <col min="27" max="27" width="25.19921875" style="50" customWidth="1"/>
     <col min="28" max="28" width="35.5" style="50" customWidth="1"/>
-    <col min="29" max="29" width="10.75" style="50"/>
-    <col min="30" max="30" width="31.75" style="50" customWidth="1"/>
+    <col min="29" max="29" width="10.69921875" style="50"/>
+    <col min="30" max="30" width="31.69921875" style="50" customWidth="1"/>
     <col min="31" max="31" width="28.5" style="50" customWidth="1"/>
-    <col min="32" max="32" width="25.25" style="50" customWidth="1"/>
+    <col min="32" max="32" width="25.19921875" style="50" customWidth="1"/>
     <col min="33" max="33" width="26" style="50" customWidth="1"/>
-    <col min="34" max="35" width="10.75" style="50"/>
-    <col min="36" max="36" width="24.25" style="50" customWidth="1"/>
+    <col min="34" max="35" width="10.69921875" style="50"/>
+    <col min="36" max="36" width="24.19921875" style="50" customWidth="1"/>
     <col min="37" max="37" width="26" style="50" customWidth="1"/>
     <col min="38" max="38" width="37" style="50" customWidth="1"/>
-    <col min="39" max="16384" width="10.75" style="50"/>
+    <col min="39" max="16384" width="10.69921875" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="1" spans="1:38" ht="19.95" customHeight="1" thickBot="1">
       <c r="A1" s="49" t="s">
         <v>8</v>
       </c>
@@ -7511,7 +7525,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="2" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>579</v>
       </c>
@@ -7543,7 +7557,7 @@
         <v>43921</v>
       </c>
       <c r="K2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>759</v>
@@ -7555,7 +7569,7 @@
         <v>41835</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="P2" s="47" t="s">
         <v>758</v>
@@ -7570,7 +7584,7 @@
         <v>758</v>
       </c>
       <c r="T2" s="47" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U2" s="61"/>
       <c r="V2" s="65"/>
@@ -7586,13 +7600,13 @@
       </c>
       <c r="AF2" s="53"/>
       <c r="AG2" s="54"/>
-      <c r="AJ2" s="125" t="s">
+      <c r="AJ2" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="AK2" s="126"/>
-      <c r="AL2" s="127"/>
-    </row>
-    <row r="3" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="130"/>
+    </row>
+    <row r="3" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="A3" s="41" t="s">
         <v>579</v>
       </c>
@@ -7624,7 +7638,7 @@
         <v>43921</v>
       </c>
       <c r="K3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>759</v>
@@ -7636,7 +7650,7 @@
         <v>41835</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="P3" s="21" t="s">
         <v>758</v>
@@ -7651,7 +7665,7 @@
         <v>758</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U3" s="62"/>
       <c r="V3" s="66"/>
@@ -7669,7 +7683,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="A4" s="41" t="s">
         <v>579</v>
       </c>
@@ -7707,7 +7721,7 @@
         <v>756</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N4" s="76">
         <v>43960</v>
@@ -7728,10 +7742,10 @@
         <v>758</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="U4" s="62" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="V4" s="66"/>
       <c r="W4" s="23"/>
@@ -7762,7 +7776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="5" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A5" s="41" t="s">
         <v>579</v>
       </c>
@@ -7800,7 +7814,7 @@
         <v>756</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N5" s="76">
         <v>43960</v>
@@ -7821,7 +7835,7 @@
         <v>758</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="U5" s="62"/>
       <c r="V5" s="66"/>
@@ -7856,7 +7870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="6" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>579</v>
       </c>
@@ -7938,7 +7952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="7" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A7" s="41" t="s">
         <v>579</v>
       </c>
@@ -8020,7 +8034,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="8" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A8" s="41" t="s">
         <v>579</v>
       </c>
@@ -8052,7 +8066,7 @@
         <v>43921</v>
       </c>
       <c r="K8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>759</v>
@@ -8064,7 +8078,7 @@
         <v>41835</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P8" s="21" t="s">
         <v>758</v>
@@ -8079,7 +8093,7 @@
         <v>758</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U8" s="62"/>
       <c r="V8" s="66"/>
@@ -8114,7 +8128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="9" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A9" s="41" t="s">
         <v>579</v>
       </c>
@@ -8173,7 +8187,7 @@
         <v>758</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U9" s="62" t="s">
         <v>767</v>
@@ -8210,7 +8224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="10" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A10" s="41" t="s">
         <v>579</v>
       </c>
@@ -8292,7 +8306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="11" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>579</v>
       </c>
@@ -8330,13 +8344,13 @@
         <v>756</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N11" s="76">
         <v>43960</v>
       </c>
       <c r="O11" s="59" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="P11" s="23" t="s">
         <v>758</v>
@@ -8351,7 +8365,7 @@
         <v>758</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U11" s="62"/>
       <c r="V11" s="66"/>
@@ -8386,7 +8400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="12" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>579</v>
       </c>
@@ -8480,7 +8494,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="13" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>579</v>
       </c>
@@ -8574,7 +8588,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="14" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A14" s="41" t="s">
         <v>579</v>
       </c>
@@ -8633,7 +8647,7 @@
         <v>758</v>
       </c>
       <c r="T14" s="23" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U14" s="23" t="s">
         <v>771</v>
@@ -8670,7 +8684,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="15" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="A15" s="41" t="s">
         <v>579</v>
       </c>
@@ -8729,7 +8743,7 @@
         <v>758</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="U15" s="62"/>
       <c r="V15" s="66"/>
@@ -8764,7 +8778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="16" spans="1:38" s="6" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="A16" s="41" t="s">
         <v>579</v>
       </c>
@@ -8837,7 +8851,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="17" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="A17" s="41" t="s">
         <v>579</v>
       </c>
@@ -8862,7 +8876,9 @@
       <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="21" t="s">
+        <v>753</v>
+      </c>
       <c r="J17" s="73">
         <v>43921</v>
       </c>
@@ -8907,7 +8923,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="18" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A18" s="41" t="s">
         <v>579</v>
       </c>
@@ -8965,7 +8981,7 @@
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
     </row>
-    <row r="19" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="19" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A19" s="41" t="s">
         <v>579</v>
       </c>
@@ -8990,7 +9006,9 @@
       <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="21" t="s">
+        <v>753</v>
+      </c>
       <c r="J19" s="73">
         <v>43921</v>
       </c>
@@ -9021,7 +9039,7 @@
       <c r="AA19" s="21"/>
       <c r="AB19" s="21"/>
     </row>
-    <row r="20" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="20" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A20" s="41" t="s">
         <v>579</v>
       </c>
@@ -9080,7 +9098,7 @@
         <v>758</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U20" s="62"/>
       <c r="V20" s="66"/>
@@ -9091,7 +9109,7 @@
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
     </row>
-    <row r="21" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="21" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A21" s="41" t="s">
         <v>579</v>
       </c>
@@ -9150,7 +9168,7 @@
         <v>758</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U21" s="62"/>
       <c r="V21" s="66"/>
@@ -9161,7 +9179,7 @@
       <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
     </row>
-    <row r="22" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="22" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A22" s="41" t="s">
         <v>579</v>
       </c>
@@ -9233,7 +9251,7 @@
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
     </row>
-    <row r="23" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="23" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A23" s="41" t="s">
         <v>579</v>
       </c>
@@ -9265,10 +9283,10 @@
         <v>43921</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="M23" s="14" t="s">
         <v>753</v>
@@ -9292,7 +9310,7 @@
         <v>757</v>
       </c>
       <c r="T23" s="22" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="U23" s="62"/>
       <c r="V23" s="66"/>
@@ -9303,7 +9321,7 @@
       <c r="AA23" s="21"/>
       <c r="AB23" s="21"/>
     </row>
-    <row r="24" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="24" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A24" s="41" t="s">
         <v>579</v>
       </c>
@@ -9362,7 +9380,7 @@
         <v>758</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="U24" s="62"/>
       <c r="V24" s="66"/>
@@ -9373,7 +9391,7 @@
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
     </row>
-    <row r="25" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="25" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A25" s="41" t="s">
         <v>579</v>
       </c>
@@ -9443,7 +9461,7 @@
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
     </row>
-    <row r="26" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="26" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A26" s="41" t="s">
         <v>579</v>
       </c>
@@ -9502,7 +9520,7 @@
         <v>758</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U26" s="62"/>
       <c r="V26" s="66"/>
@@ -9513,7 +9531,7 @@
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
     </row>
-    <row r="27" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="27" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A27" s="41" t="s">
         <v>579</v>
       </c>
@@ -9557,7 +9575,7 @@
         <v>43960</v>
       </c>
       <c r="O27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="P27" s="21" t="s">
         <v>758</v>
@@ -9572,7 +9590,7 @@
         <v>758</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U27" s="62"/>
       <c r="V27" s="66"/>
@@ -9583,7 +9601,7 @@
       <c r="AA27" s="21"/>
       <c r="AB27" s="21"/>
     </row>
-    <row r="28" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="28" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A28" s="41" t="s">
         <v>579</v>
       </c>
@@ -9642,7 +9660,7 @@
         <v>758</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="U28" s="62"/>
       <c r="V28" s="66"/>
@@ -9653,7 +9671,7 @@
       <c r="AA28" s="21"/>
       <c r="AB28" s="21"/>
     </row>
-    <row r="29" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="29" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A29" s="41" t="s">
         <v>579</v>
       </c>
@@ -9723,7 +9741,7 @@
       <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
     </row>
-    <row r="30" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="30" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A30" s="41" t="s">
         <v>579</v>
       </c>
@@ -9765,7 +9783,7 @@
       </c>
       <c r="N30" s="21"/>
       <c r="O30" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="P30" s="21" t="s">
         <v>758</v>
@@ -9780,7 +9798,7 @@
         <v>758</v>
       </c>
       <c r="T30" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U30" s="62"/>
       <c r="V30" s="66"/>
@@ -9791,7 +9809,7 @@
       <c r="AA30" s="21"/>
       <c r="AB30" s="21"/>
     </row>
-    <row r="31" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="31" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A31" s="41" t="s">
         <v>579</v>
       </c>
@@ -9850,7 +9868,7 @@
         <v>758</v>
       </c>
       <c r="T31" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U31" s="62"/>
       <c r="V31" s="66"/>
@@ -9861,7 +9879,7 @@
       <c r="AA31" s="21"/>
       <c r="AB31" s="21"/>
     </row>
-    <row r="32" spans="1:33" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="32" spans="1:33" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A32" s="41" t="s">
         <v>579</v>
       </c>
@@ -9920,7 +9938,7 @@
         <v>758</v>
       </c>
       <c r="T32" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U32" s="62"/>
       <c r="V32" s="66"/>
@@ -9931,7 +9949,7 @@
       <c r="AA32" s="21"/>
       <c r="AB32" s="21"/>
     </row>
-    <row r="33" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="33" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A33" s="41" t="s">
         <v>579</v>
       </c>
@@ -9975,7 +9993,7 @@
         <v>43960</v>
       </c>
       <c r="O33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="P33" s="21" t="s">
         <v>758</v>
@@ -9990,7 +10008,7 @@
         <v>758</v>
       </c>
       <c r="T33" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U33" s="62"/>
       <c r="V33" s="66"/>
@@ -10001,7 +10019,7 @@
       <c r="AA33" s="21"/>
       <c r="AB33" s="21"/>
     </row>
-    <row r="34" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="34" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A34" s="41" t="s">
         <v>579</v>
       </c>
@@ -10060,7 +10078,7 @@
         <v>758</v>
       </c>
       <c r="T34" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U34" s="62"/>
       <c r="V34" s="66"/>
@@ -10071,7 +10089,7 @@
       <c r="AA34" s="21"/>
       <c r="AB34" s="21"/>
     </row>
-    <row r="35" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="35" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A35" s="41" t="s">
         <v>579</v>
       </c>
@@ -10141,7 +10159,7 @@
       <c r="AA35" s="21"/>
       <c r="AB35" s="21"/>
     </row>
-    <row r="36" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="36" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A36" s="41" t="s">
         <v>579</v>
       </c>
@@ -10211,7 +10229,7 @@
       <c r="AA36" s="21"/>
       <c r="AB36" s="21"/>
     </row>
-    <row r="37" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="37" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A37" s="41" t="s">
         <v>579</v>
       </c>
@@ -10281,7 +10299,7 @@
       <c r="AA37" s="21"/>
       <c r="AB37" s="21"/>
     </row>
-    <row r="38" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="38" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A38" s="41" t="s">
         <v>579</v>
       </c>
@@ -10351,7 +10369,7 @@
       <c r="AA38" s="21"/>
       <c r="AB38" s="21"/>
     </row>
-    <row r="39" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="39" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A39" s="41" t="s">
         <v>579</v>
       </c>
@@ -10421,7 +10439,7 @@
       <c r="AA39" s="21"/>
       <c r="AB39" s="21"/>
     </row>
-    <row r="40" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="40" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A40" s="41" t="s">
         <v>579</v>
       </c>
@@ -10491,7 +10509,7 @@
       <c r="AA40" s="21"/>
       <c r="AB40" s="21"/>
     </row>
-    <row r="41" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="41" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A41" s="41" t="s">
         <v>579</v>
       </c>
@@ -10561,7 +10579,7 @@
       <c r="AA41" s="21"/>
       <c r="AB41" s="21"/>
     </row>
-    <row r="42" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="42" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A42" s="41" t="s">
         <v>579</v>
       </c>
@@ -10605,7 +10623,7 @@
         <v>43960</v>
       </c>
       <c r="O42" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="P42" s="21" t="s">
         <v>758</v>
@@ -10620,7 +10638,7 @@
         <v>758</v>
       </c>
       <c r="T42" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U42" s="62"/>
       <c r="V42" s="66"/>
@@ -10631,7 +10649,7 @@
       <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
     </row>
-    <row r="43" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="43" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A43" s="41" t="s">
         <v>579</v>
       </c>
@@ -10675,7 +10693,7 @@
         <v>43960</v>
       </c>
       <c r="O43" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="P43" s="21" t="s">
         <v>758</v>
@@ -10690,7 +10708,7 @@
         <v>758</v>
       </c>
       <c r="T43" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U43" s="62"/>
       <c r="V43" s="66"/>
@@ -10701,7 +10719,7 @@
       <c r="AA43" s="21"/>
       <c r="AB43" s="21"/>
     </row>
-    <row r="44" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="44" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A44" s="41" t="s">
         <v>579</v>
       </c>
@@ -10771,7 +10789,7 @@
       <c r="AA44" s="21"/>
       <c r="AB44" s="21"/>
     </row>
-    <row r="45" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="45" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A45" s="41" t="s">
         <v>579</v>
       </c>
@@ -10830,7 +10848,7 @@
         <v>758</v>
       </c>
       <c r="T45" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U45" s="62"/>
       <c r="V45" s="66"/>
@@ -10841,7 +10859,7 @@
       <c r="AA45" s="21"/>
       <c r="AB45" s="21"/>
     </row>
-    <row r="46" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="46" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A46" s="41" t="s">
         <v>579</v>
       </c>
@@ -10900,7 +10918,7 @@
         <v>758</v>
       </c>
       <c r="T46" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U46" s="62"/>
       <c r="V46" s="66"/>
@@ -10911,7 +10929,7 @@
       <c r="AA46" s="21"/>
       <c r="AB46" s="21"/>
     </row>
-    <row r="47" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="47" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A47" s="41" t="s">
         <v>579</v>
       </c>
@@ -10969,7 +10987,7 @@
       <c r="AA47" s="21"/>
       <c r="AB47" s="21"/>
     </row>
-    <row r="48" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="48" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A48" s="41" t="s">
         <v>579</v>
       </c>
@@ -11013,7 +11031,7 @@
         <v>43549</v>
       </c>
       <c r="O48" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="P48" s="23" t="s">
         <v>758</v>
@@ -11028,7 +11046,7 @@
         <v>758</v>
       </c>
       <c r="T48" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U48" s="62"/>
       <c r="V48" s="66"/>
@@ -11039,7 +11057,7 @@
       <c r="AA48" s="21"/>
       <c r="AB48" s="21"/>
     </row>
-    <row r="49" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="49" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A49" s="41" t="s">
         <v>579</v>
       </c>
@@ -11083,7 +11101,7 @@
         <v>43549</v>
       </c>
       <c r="O49" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P49" s="23" t="s">
         <v>758</v>
@@ -11098,7 +11116,7 @@
         <v>758</v>
       </c>
       <c r="T49" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U49" s="62"/>
       <c r="V49" s="66"/>
@@ -11109,7 +11127,7 @@
       <c r="AA49" s="21"/>
       <c r="AB49" s="21"/>
     </row>
-    <row r="50" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="50" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A50" s="41" t="s">
         <v>579</v>
       </c>
@@ -11168,7 +11186,7 @@
         <v>758</v>
       </c>
       <c r="T50" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U50" s="62"/>
       <c r="V50" s="66"/>
@@ -11179,7 +11197,7 @@
       <c r="AA50" s="21"/>
       <c r="AB50" s="21"/>
     </row>
-    <row r="51" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="51" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A51" s="41" t="s">
         <v>579</v>
       </c>
@@ -11223,7 +11241,7 @@
         <v>43960</v>
       </c>
       <c r="O51" s="59" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="P51" s="21" t="s">
         <v>758</v>
@@ -11238,7 +11256,7 @@
         <v>758</v>
       </c>
       <c r="T51" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U51" s="62"/>
       <c r="V51" s="66"/>
@@ -11249,7 +11267,7 @@
       <c r="AA51" s="21"/>
       <c r="AB51" s="21"/>
     </row>
-    <row r="52" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="52" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A52" s="41" t="s">
         <v>579</v>
       </c>
@@ -11307,7 +11325,7 @@
       <c r="AA52" s="21"/>
       <c r="AB52" s="21"/>
     </row>
-    <row r="53" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="53" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A53" s="41" t="s">
         <v>579</v>
       </c>
@@ -11365,7 +11383,7 @@
       <c r="AA53" s="21"/>
       <c r="AB53" s="21"/>
     </row>
-    <row r="54" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="54" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A54" s="41" t="s">
         <v>579</v>
       </c>
@@ -11423,7 +11441,7 @@
       <c r="AA54" s="21"/>
       <c r="AB54" s="21"/>
     </row>
-    <row r="55" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="55" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A55" s="41" t="s">
         <v>579</v>
       </c>
@@ -11458,12 +11476,12 @@
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
       <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
+      <c r="O55"/>
       <c r="P55" s="21" t="s">
         <v>758</v>
       </c>
       <c r="Q55" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R55" s="21" t="s">
         <v>758</v>
@@ -11481,7 +11499,7 @@
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
     </row>
-    <row r="56" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="56" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A56" s="41" t="s">
         <v>579</v>
       </c>
@@ -11539,7 +11557,7 @@
       <c r="AA56" s="21"/>
       <c r="AB56" s="21"/>
     </row>
-    <row r="57" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="57" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A57" s="41" t="s">
         <v>579</v>
       </c>
@@ -11598,7 +11616,7 @@
         <v>758</v>
       </c>
       <c r="T57" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U57" s="62"/>
       <c r="V57" s="66"/>
@@ -11609,7 +11627,7 @@
       <c r="AA57" s="21"/>
       <c r="AB57" s="21"/>
     </row>
-    <row r="58" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="58" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A58" s="41" t="s">
         <v>579</v>
       </c>
@@ -11668,7 +11686,7 @@
         <v>758</v>
       </c>
       <c r="T58" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U58" s="62"/>
       <c r="V58" s="66"/>
@@ -11679,7 +11697,7 @@
       <c r="AA58" s="21"/>
       <c r="AB58" s="21"/>
     </row>
-    <row r="59" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="59" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A59" s="41" t="s">
         <v>579</v>
       </c>
@@ -11738,7 +11756,7 @@
         <v>758</v>
       </c>
       <c r="T59" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U59" s="62"/>
       <c r="V59" s="66"/>
@@ -11749,7 +11767,7 @@
       <c r="AA59" s="21"/>
       <c r="AB59" s="21"/>
     </row>
-    <row r="60" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="60" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A60" s="41" t="s">
         <v>579</v>
       </c>
@@ -11793,7 +11811,7 @@
         <v>43960</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P60" s="21" t="s">
         <v>758</v>
@@ -11808,7 +11826,7 @@
         <v>758</v>
       </c>
       <c r="T60" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U60" s="62"/>
       <c r="V60" s="66"/>
@@ -11819,7 +11837,7 @@
       <c r="AA60" s="21"/>
       <c r="AB60" s="21"/>
     </row>
-    <row r="61" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="61" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A61" s="41" t="s">
         <v>579</v>
       </c>
@@ -11861,7 +11879,7 @@
       </c>
       <c r="N61" s="21"/>
       <c r="O61" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="P61" s="21" t="s">
         <v>758</v>
@@ -11876,7 +11894,7 @@
         <v>758</v>
       </c>
       <c r="T61" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U61" s="62"/>
       <c r="V61" s="66"/>
@@ -11887,7 +11905,7 @@
       <c r="AA61" s="21"/>
       <c r="AB61" s="21"/>
     </row>
-    <row r="62" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="62" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A62" s="41" t="s">
         <v>579</v>
       </c>
@@ -11943,7 +11961,7 @@
       <c r="AA62" s="21"/>
       <c r="AB62" s="21"/>
     </row>
-    <row r="63" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="63" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A63" s="41" t="s">
         <v>579</v>
       </c>
@@ -12002,7 +12020,7 @@
         <v>758</v>
       </c>
       <c r="T63" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U63" s="62"/>
       <c r="V63" s="66"/>
@@ -12013,7 +12031,7 @@
       <c r="AA63" s="21"/>
       <c r="AB63" s="21"/>
     </row>
-    <row r="64" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="64" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A64" s="41" t="s">
         <v>579</v>
       </c>
@@ -12057,7 +12075,7 @@
         <v>43960</v>
       </c>
       <c r="O64" s="59" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="P64" s="21" t="s">
         <v>758</v>
@@ -12072,7 +12090,7 @@
         <v>758</v>
       </c>
       <c r="T64" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U64" s="62"/>
       <c r="V64" s="66"/>
@@ -12083,7 +12101,7 @@
       <c r="AA64" s="21"/>
       <c r="AB64" s="21"/>
     </row>
-    <row r="65" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="65" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A65" s="41" t="s">
         <v>579</v>
       </c>
@@ -12127,7 +12145,7 @@
         <v>43960</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P65" s="23" t="s">
         <v>758</v>
@@ -12142,7 +12160,7 @@
         <v>758</v>
       </c>
       <c r="T65" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U65" s="62"/>
       <c r="V65" s="66"/>
@@ -12153,7 +12171,7 @@
       <c r="AA65" s="21"/>
       <c r="AB65" s="21"/>
     </row>
-    <row r="66" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="66" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A66" s="41" t="s">
         <v>579</v>
       </c>
@@ -12223,7 +12241,7 @@
       <c r="AA66" s="21"/>
       <c r="AB66" s="21"/>
     </row>
-    <row r="67" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="67" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A67" s="41" t="s">
         <v>579</v>
       </c>
@@ -12293,7 +12311,7 @@
       <c r="AA67" s="21"/>
       <c r="AB67" s="21"/>
     </row>
-    <row r="68" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="68" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A68" s="41" t="s">
         <v>579</v>
       </c>
@@ -12352,7 +12370,7 @@
         <v>758</v>
       </c>
       <c r="T68" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U68" s="62"/>
       <c r="V68" s="66"/>
@@ -12363,7 +12381,7 @@
       <c r="AA68" s="21"/>
       <c r="AB68" s="21"/>
     </row>
-    <row r="69" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="69" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A69" s="41" t="s">
         <v>579</v>
       </c>
@@ -12407,7 +12425,7 @@
         <v>43773</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P69" s="23" t="s">
         <v>758</v>
@@ -12422,7 +12440,7 @@
         <v>758</v>
       </c>
       <c r="T69" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U69" s="62"/>
       <c r="V69" s="66"/>
@@ -12433,7 +12451,7 @@
       <c r="AA69" s="21"/>
       <c r="AB69" s="21"/>
     </row>
-    <row r="70" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="70" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A70" s="41" t="s">
         <v>579</v>
       </c>
@@ -12491,7 +12509,7 @@
       <c r="AA70" s="21"/>
       <c r="AB70" s="21"/>
     </row>
-    <row r="71" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="71" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A71" s="41" t="s">
         <v>579</v>
       </c>
@@ -12535,7 +12553,7 @@
         <v>43773</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="P71" s="23" t="s">
         <v>758</v>
@@ -12550,7 +12568,7 @@
         <v>758</v>
       </c>
       <c r="T71" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U71" s="62"/>
       <c r="V71" s="66"/>
@@ -12561,7 +12579,7 @@
       <c r="AA71" s="21"/>
       <c r="AB71" s="21"/>
     </row>
-    <row r="72" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="72" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A72" s="41" t="s">
         <v>579</v>
       </c>
@@ -12620,7 +12638,7 @@
         <v>758</v>
       </c>
       <c r="T72" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U72" s="62"/>
       <c r="V72" s="66"/>
@@ -12631,7 +12649,7 @@
       <c r="AA72" s="21"/>
       <c r="AB72" s="21"/>
     </row>
-    <row r="73" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="73" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A73" s="41" t="s">
         <v>579</v>
       </c>
@@ -12675,7 +12693,7 @@
         <v>43773</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="P73" s="21" t="s">
         <v>758</v>
@@ -12690,7 +12708,7 @@
         <v>758</v>
       </c>
       <c r="T73" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U73" s="62"/>
       <c r="V73" s="66"/>
@@ -12701,7 +12719,7 @@
       <c r="AA73" s="21"/>
       <c r="AB73" s="21"/>
     </row>
-    <row r="74" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="74" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A74" s="41" t="s">
         <v>579</v>
       </c>
@@ -12757,7 +12775,7 @@
       <c r="AA74" s="21"/>
       <c r="AB74" s="21"/>
     </row>
-    <row r="75" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="75" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A75" s="41" t="s">
         <v>579</v>
       </c>
@@ -12801,7 +12819,7 @@
         <v>43773</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="P75" s="23" t="s">
         <v>758</v>
@@ -12816,7 +12834,7 @@
         <v>758</v>
       </c>
       <c r="T75" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U75" s="62"/>
       <c r="V75" s="66"/>
@@ -12827,7 +12845,7 @@
       <c r="AA75" s="21"/>
       <c r="AB75" s="21"/>
     </row>
-    <row r="76" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="76" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A76" s="41" t="s">
         <v>579</v>
       </c>
@@ -12871,7 +12889,7 @@
         <v>43773</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="P76" s="21" t="s">
         <v>758</v>
@@ -12886,7 +12904,7 @@
         <v>758</v>
       </c>
       <c r="T76" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U76" s="62"/>
       <c r="V76" s="66"/>
@@ -12897,7 +12915,7 @@
       <c r="AA76" s="21"/>
       <c r="AB76" s="21"/>
     </row>
-    <row r="77" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="77" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A77" s="41" t="s">
         <v>579</v>
       </c>
@@ -12941,7 +12959,7 @@
         <v>43960</v>
       </c>
       <c r="O77" s="59" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P77" s="21" t="s">
         <v>758</v>
@@ -12956,7 +12974,7 @@
         <v>758</v>
       </c>
       <c r="T77" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U77" s="62"/>
       <c r="V77" s="66"/>
@@ -12967,7 +12985,7 @@
       <c r="AA77" s="21"/>
       <c r="AB77" s="21"/>
     </row>
-    <row r="78" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="78" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A78" s="41" t="s">
         <v>579</v>
       </c>
@@ -13011,7 +13029,7 @@
         <v>43960</v>
       </c>
       <c r="O78" s="59" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="P78" s="21" t="s">
         <v>758</v>
@@ -13026,7 +13044,7 @@
         <v>758</v>
       </c>
       <c r="T78" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U78" s="62"/>
       <c r="V78" s="66"/>
@@ -13037,7 +13055,7 @@
       <c r="AA78" s="21"/>
       <c r="AB78" s="21"/>
     </row>
-    <row r="79" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="79" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A79" s="41" t="s">
         <v>579</v>
       </c>
@@ -13093,7 +13111,7 @@
       <c r="AA79" s="21"/>
       <c r="AB79" s="21"/>
     </row>
-    <row r="80" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="80" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A80" s="41" t="s">
         <v>579</v>
       </c>
@@ -13163,7 +13181,7 @@
       <c r="AA80" s="21"/>
       <c r="AB80" s="21"/>
     </row>
-    <row r="81" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="81" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A81" s="41" t="s">
         <v>579</v>
       </c>
@@ -13233,7 +13251,7 @@
       <c r="AA81" s="21"/>
       <c r="AB81" s="21"/>
     </row>
-    <row r="82" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="82" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A82" s="41" t="s">
         <v>579</v>
       </c>
@@ -13303,7 +13321,7 @@
       <c r="AA82" s="21"/>
       <c r="AB82" s="21"/>
     </row>
-    <row r="83" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="83" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A83" s="41" t="s">
         <v>579</v>
       </c>
@@ -13373,7 +13391,7 @@
       <c r="AA83" s="21"/>
       <c r="AB83" s="21"/>
     </row>
-    <row r="84" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="84" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A84" s="41" t="s">
         <v>579</v>
       </c>
@@ -13443,7 +13461,7 @@
       <c r="AA84" s="21"/>
       <c r="AB84" s="21"/>
     </row>
-    <row r="85" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="85" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A85" s="41" t="s">
         <v>579</v>
       </c>
@@ -13487,7 +13505,7 @@
         <v>43960</v>
       </c>
       <c r="O85" s="72" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="P85" s="21" t="s">
         <v>758</v>
@@ -13502,7 +13520,7 @@
         <v>758</v>
       </c>
       <c r="T85" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U85" s="62"/>
       <c r="V85" s="66"/>
@@ -13513,7 +13531,7 @@
       <c r="AA85" s="21"/>
       <c r="AB85" s="21"/>
     </row>
-    <row r="86" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="86" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A86" s="41" t="s">
         <v>579</v>
       </c>
@@ -13545,7 +13563,7 @@
         <v>43921</v>
       </c>
       <c r="K86" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L86" s="23" t="s">
         <v>759</v>
@@ -13572,7 +13590,7 @@
         <v>758</v>
       </c>
       <c r="T86" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U86" s="62"/>
       <c r="V86" s="66"/>
@@ -13583,7 +13601,7 @@
       <c r="AA86" s="21"/>
       <c r="AB86" s="21"/>
     </row>
-    <row r="87" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="87" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A87" s="41" t="s">
         <v>579</v>
       </c>
@@ -13627,7 +13645,7 @@
         <v>43960</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="P87" s="21" t="s">
         <v>758</v>
@@ -13642,7 +13660,7 @@
         <v>758</v>
       </c>
       <c r="T87" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U87" s="62"/>
       <c r="V87" s="66"/>
@@ -13653,7 +13671,7 @@
       <c r="AA87" s="21"/>
       <c r="AB87" s="21"/>
     </row>
-    <row r="88" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="88" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A88" s="41" t="s">
         <v>579</v>
       </c>
@@ -13711,7 +13729,7 @@
       <c r="AA88" s="21"/>
       <c r="AB88" s="21"/>
     </row>
-    <row r="89" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="89" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A89" s="41" t="s">
         <v>579</v>
       </c>
@@ -13743,7 +13761,7 @@
         <v>43921</v>
       </c>
       <c r="K89" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L89" s="23" t="s">
         <v>759</v>
@@ -13755,7 +13773,7 @@
         <v>41835</v>
       </c>
       <c r="O89" s="14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="P89" s="21" t="s">
         <v>758</v>
@@ -13770,7 +13788,7 @@
         <v>758</v>
       </c>
       <c r="T89" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U89" s="62"/>
       <c r="V89" s="66"/>
@@ -13781,7 +13799,7 @@
       <c r="AA89" s="21"/>
       <c r="AB89" s="21"/>
     </row>
-    <row r="90" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="90" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A90" s="41" t="s">
         <v>579</v>
       </c>
@@ -13813,7 +13831,7 @@
         <v>43921</v>
       </c>
       <c r="K90" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L90" s="75" t="s">
         <v>759</v>
@@ -13825,7 +13843,7 @@
         <v>41835</v>
       </c>
       <c r="O90" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="P90" s="21" t="s">
         <v>758</v>
@@ -13840,7 +13858,7 @@
         <v>758</v>
       </c>
       <c r="T90" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U90" s="62"/>
       <c r="V90" s="66"/>
@@ -13851,7 +13869,7 @@
       <c r="AA90" s="21"/>
       <c r="AB90" s="21"/>
     </row>
-    <row r="91" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="91" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A91" s="41" t="s">
         <v>579</v>
       </c>
@@ -13883,7 +13901,7 @@
         <v>43921</v>
       </c>
       <c r="K91" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L91" s="23" t="s">
         <v>759</v>
@@ -13895,7 +13913,7 @@
         <v>41835</v>
       </c>
       <c r="O91" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="P91" s="21" t="s">
         <v>758</v>
@@ -13910,7 +13928,7 @@
         <v>758</v>
       </c>
       <c r="T91" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U91" s="62"/>
       <c r="V91" s="66"/>
@@ -13921,7 +13939,7 @@
       <c r="AA91" s="21"/>
       <c r="AB91" s="21"/>
     </row>
-    <row r="92" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="92" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A92" s="41" t="s">
         <v>579</v>
       </c>
@@ -13979,7 +13997,7 @@
       <c r="AA92" s="21"/>
       <c r="AB92" s="21"/>
     </row>
-    <row r="93" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="93" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A93" s="41" t="s">
         <v>579</v>
       </c>
@@ -14011,7 +14029,7 @@
         <v>43921</v>
       </c>
       <c r="K93" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L93" s="23" t="s">
         <v>759</v>
@@ -14023,7 +14041,7 @@
         <v>41835</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="P93" s="21" t="s">
         <v>758</v>
@@ -14038,7 +14056,7 @@
         <v>758</v>
       </c>
       <c r="T93" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U93" s="62"/>
       <c r="V93" s="66"/>
@@ -14049,7 +14067,7 @@
       <c r="AA93" s="21"/>
       <c r="AB93" s="21"/>
     </row>
-    <row r="94" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="94" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A94" s="41" t="s">
         <v>579</v>
       </c>
@@ -14081,7 +14099,7 @@
         <v>43921</v>
       </c>
       <c r="K94" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L94" s="23" t="s">
         <v>759</v>
@@ -14108,7 +14126,7 @@
         <v>758</v>
       </c>
       <c r="T94" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U94" s="62"/>
       <c r="V94" s="66"/>
@@ -14119,7 +14137,7 @@
       <c r="AA94" s="21"/>
       <c r="AB94" s="21"/>
     </row>
-    <row r="95" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="95" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A95" s="41" t="s">
         <v>579</v>
       </c>
@@ -14151,7 +14169,7 @@
         <v>43921</v>
       </c>
       <c r="K95" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L95" s="23" t="s">
         <v>759</v>
@@ -14163,7 +14181,7 @@
         <v>41835</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="P95" s="21" t="s">
         <v>758</v>
@@ -14178,7 +14196,7 @@
         <v>758</v>
       </c>
       <c r="T95" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U95" s="62"/>
       <c r="V95" s="66"/>
@@ -14189,7 +14207,7 @@
       <c r="AA95" s="21"/>
       <c r="AB95" s="21"/>
     </row>
-    <row r="96" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="96" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A96" s="41" t="s">
         <v>579</v>
       </c>
@@ -14221,7 +14239,7 @@
         <v>43921</v>
       </c>
       <c r="K96" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L96" s="23" t="s">
         <v>759</v>
@@ -14233,7 +14251,7 @@
         <v>41835</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="P96" s="21" t="s">
         <v>758</v>
@@ -14248,7 +14266,7 @@
         <v>758</v>
       </c>
       <c r="T96" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U96" s="62"/>
       <c r="V96" s="66"/>
@@ -14259,7 +14277,7 @@
       <c r="AA96" s="21"/>
       <c r="AB96" s="21"/>
     </row>
-    <row r="97" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="97" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A97" s="41" t="s">
         <v>579</v>
       </c>
@@ -14291,7 +14309,7 @@
         <v>43921</v>
       </c>
       <c r="K97" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L97" s="23" t="s">
         <v>759</v>
@@ -14318,7 +14336,7 @@
         <v>758</v>
       </c>
       <c r="T97" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U97" s="62"/>
       <c r="V97" s="66"/>
@@ -14329,7 +14347,7 @@
       <c r="AA97" s="21"/>
       <c r="AB97" s="21"/>
     </row>
-    <row r="98" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="98" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A98" s="41" t="s">
         <v>579</v>
       </c>
@@ -14366,14 +14384,14 @@
       <c r="L98" s="75" t="s">
         <v>756</v>
       </c>
-      <c r="M98" s="21">
-        <v>11</v>
+      <c r="M98" s="21" t="s">
+        <v>954</v>
       </c>
       <c r="N98" s="76">
         <v>43960</v>
       </c>
-      <c r="O98" s="21" t="s">
-        <v>753</v>
+      <c r="O98" t="s">
+        <v>953</v>
       </c>
       <c r="P98" s="21" t="s">
         <v>757</v>
@@ -14399,7 +14417,7 @@
       <c r="AA98" s="21"/>
       <c r="AB98" s="21"/>
     </row>
-    <row r="99" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="99" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A99" s="41" t="s">
         <v>579</v>
       </c>
@@ -14458,7 +14476,7 @@
         <v>758</v>
       </c>
       <c r="T99" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U99" s="62"/>
       <c r="V99" s="66"/>
@@ -14469,7 +14487,7 @@
       <c r="AA99" s="21"/>
       <c r="AB99" s="21"/>
     </row>
-    <row r="100" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="100" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A100" s="41" t="s">
         <v>579</v>
       </c>
@@ -14513,7 +14531,7 @@
         <v>43960</v>
       </c>
       <c r="O100" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P100" s="21" t="s">
         <v>758</v>
@@ -14528,7 +14546,7 @@
         <v>758</v>
       </c>
       <c r="T100" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U100" s="62"/>
       <c r="V100" s="66"/>
@@ -14539,7 +14557,7 @@
       <c r="AA100" s="21"/>
       <c r="AB100" s="21"/>
     </row>
-    <row r="101" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="101" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A101" s="41" t="s">
         <v>579</v>
       </c>
@@ -14571,7 +14589,7 @@
         <v>43921</v>
       </c>
       <c r="K101" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L101" s="23" t="s">
         <v>759</v>
@@ -14598,7 +14616,7 @@
         <v>758</v>
       </c>
       <c r="T101" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U101" s="62"/>
       <c r="V101" s="66"/>
@@ -14609,7 +14627,7 @@
       <c r="AA101" s="21"/>
       <c r="AB101" s="21"/>
     </row>
-    <row r="102" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="102" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A102" s="41" t="s">
         <v>579</v>
       </c>
@@ -14668,7 +14686,7 @@
         <v>758</v>
       </c>
       <c r="T102" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U102" s="62"/>
       <c r="V102" s="66"/>
@@ -14679,7 +14697,7 @@
       <c r="AA102" s="21"/>
       <c r="AB102" s="21"/>
     </row>
-    <row r="103" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="103" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A103" s="41" t="s">
         <v>579</v>
       </c>
@@ -14711,19 +14729,19 @@
         <v>43921</v>
       </c>
       <c r="K103" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="L103" s="23" t="s">
         <v>759</v>
       </c>
       <c r="M103" s="21">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="N103" s="79">
         <v>41835</v>
       </c>
-      <c r="O103" s="14" t="s">
-        <v>831</v>
+      <c r="O103" t="s">
+        <v>949</v>
       </c>
       <c r="P103" s="23" t="s">
         <v>758</v>
@@ -14738,7 +14756,7 @@
         <v>758</v>
       </c>
       <c r="T103" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U103" s="62"/>
       <c r="V103" s="66"/>
@@ -14749,7 +14767,7 @@
       <c r="AA103" s="21"/>
       <c r="AB103" s="21"/>
     </row>
-    <row r="104" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="104" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A104" s="41" t="s">
         <v>579</v>
       </c>
@@ -14807,7 +14825,7 @@
       <c r="AA104" s="21"/>
       <c r="AB104" s="21"/>
     </row>
-    <row r="105" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="105" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A105" s="41" t="s">
         <v>579</v>
       </c>
@@ -14866,7 +14884,7 @@
         <v>758</v>
       </c>
       <c r="T105" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U105" s="62"/>
       <c r="V105" s="66"/>
@@ -14877,7 +14895,7 @@
       <c r="AA105" s="21"/>
       <c r="AB105" s="21"/>
     </row>
-    <row r="106" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="106" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A106" s="41" t="s">
         <v>579</v>
       </c>
@@ -14915,7 +14933,7 @@
         <v>756</v>
       </c>
       <c r="M106" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N106" s="76">
         <v>43960</v>
@@ -14936,7 +14954,7 @@
         <v>758</v>
       </c>
       <c r="T106" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="U106" s="62"/>
       <c r="V106" s="66"/>
@@ -14947,7 +14965,7 @@
       <c r="AA106" s="21"/>
       <c r="AB106" s="21"/>
     </row>
-    <row r="107" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="107" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A107" s="41" t="s">
         <v>579</v>
       </c>
@@ -14979,7 +14997,7 @@
         <v>43555</v>
       </c>
       <c r="K107" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L107" s="23" t="s">
         <v>759</v>
@@ -14991,7 +15009,7 @@
         <v>41835</v>
       </c>
       <c r="O107" s="14" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="P107" s="47" t="s">
         <v>758</v>
@@ -15006,7 +15024,7 @@
         <v>758</v>
       </c>
       <c r="T107" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U107" s="62"/>
       <c r="V107" s="66"/>
@@ -15017,7 +15035,7 @@
       <c r="AA107" s="21"/>
       <c r="AB107" s="21"/>
     </row>
-    <row r="108" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="108" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A108" s="41" t="s">
         <v>579</v>
       </c>
@@ -15049,7 +15067,7 @@
         <v>43555</v>
       </c>
       <c r="K108" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L108" s="23" t="s">
         <v>759</v>
@@ -15061,7 +15079,7 @@
         <v>41835</v>
       </c>
       <c r="O108" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="P108" s="21" t="s">
         <v>758</v>
@@ -15076,7 +15094,7 @@
         <v>758</v>
       </c>
       <c r="T108" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U108" s="62"/>
       <c r="V108" s="66"/>
@@ -15087,7 +15105,7 @@
       <c r="AA108" s="21"/>
       <c r="AB108" s="21"/>
     </row>
-    <row r="109" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="109" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A109" s="41" t="s">
         <v>579</v>
       </c>
@@ -15125,7 +15143,7 @@
         <v>765</v>
       </c>
       <c r="M109" s="59" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="N109" s="76">
         <v>43591</v>
@@ -15146,10 +15164,10 @@
         <v>758</v>
       </c>
       <c r="T109" s="59" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="U109" s="62" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="V109" s="66"/>
       <c r="W109" s="23"/>
@@ -15159,7 +15177,7 @@
       <c r="AA109" s="21"/>
       <c r="AB109" s="21"/>
     </row>
-    <row r="110" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="110" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A110" s="41" t="s">
         <v>579</v>
       </c>
@@ -15197,7 +15215,7 @@
         <v>765</v>
       </c>
       <c r="M110" s="59" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="N110" s="76">
         <v>43591</v>
@@ -15218,7 +15236,7 @@
         <v>758</v>
       </c>
       <c r="T110" s="59" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="U110" s="62"/>
       <c r="V110" s="66"/>
@@ -15229,7 +15247,7 @@
       <c r="AA110" s="21"/>
       <c r="AB110" s="21"/>
     </row>
-    <row r="111" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="111" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A111" s="41" t="s">
         <v>579</v>
       </c>
@@ -15287,7 +15305,7 @@
       <c r="AA111" s="21"/>
       <c r="AB111" s="21"/>
     </row>
-    <row r="112" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="112" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A112" s="41" t="s">
         <v>579</v>
       </c>
@@ -15345,7 +15363,7 @@
       <c r="AA112" s="21"/>
       <c r="AB112" s="21"/>
     </row>
-    <row r="113" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="113" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A113" s="41" t="s">
         <v>579</v>
       </c>
@@ -15377,7 +15395,7 @@
         <v>43555</v>
       </c>
       <c r="K113" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L113" s="23" t="s">
         <v>759</v>
@@ -15389,7 +15407,7 @@
         <v>41835</v>
       </c>
       <c r="O113" s="14" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P113" s="21" t="s">
         <v>758</v>
@@ -15404,7 +15422,7 @@
         <v>758</v>
       </c>
       <c r="T113" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U113" s="62"/>
       <c r="V113" s="66"/>
@@ -15415,7 +15433,7 @@
       <c r="AA113" s="21"/>
       <c r="AB113" s="21"/>
     </row>
-    <row r="114" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="114" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A114" s="41" t="s">
         <v>579</v>
       </c>
@@ -15474,7 +15492,7 @@
         <v>758</v>
       </c>
       <c r="T114" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U114" s="62" t="s">
         <v>767</v>
@@ -15487,7 +15505,7 @@
       <c r="AA114" s="21"/>
       <c r="AB114" s="21"/>
     </row>
-    <row r="115" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="115" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A115" s="41" t="s">
         <v>579</v>
       </c>
@@ -15545,7 +15563,7 @@
       <c r="AA115" s="21"/>
       <c r="AB115" s="21"/>
     </row>
-    <row r="116" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="116" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A116" s="41" t="s">
         <v>579</v>
       </c>
@@ -15583,13 +15601,13 @@
         <v>765</v>
       </c>
       <c r="M116" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="N116" s="76">
         <v>43591</v>
       </c>
       <c r="O116" s="59" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="P116" s="23" t="s">
         <v>758</v>
@@ -15604,7 +15622,7 @@
         <v>758</v>
       </c>
       <c r="T116" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U116" s="62"/>
       <c r="V116" s="66"/>
@@ -15615,7 +15633,7 @@
       <c r="AA116" s="21"/>
       <c r="AB116" s="21"/>
     </row>
-    <row r="117" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="117" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A117" s="41" t="s">
         <v>579</v>
       </c>
@@ -15685,7 +15703,7 @@
       <c r="AA117" s="21"/>
       <c r="AB117" s="21"/>
     </row>
-    <row r="118" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="118" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A118" s="41" t="s">
         <v>579</v>
       </c>
@@ -15755,7 +15773,7 @@
       <c r="AA118" s="21"/>
       <c r="AB118" s="21"/>
     </row>
-    <row r="119" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="119" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A119" s="41" t="s">
         <v>579</v>
       </c>
@@ -15814,7 +15832,7 @@
         <v>758</v>
       </c>
       <c r="T119" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U119" s="23" t="s">
         <v>771</v>
@@ -15827,7 +15845,7 @@
       <c r="AA119" s="21"/>
       <c r="AB119" s="21"/>
     </row>
-    <row r="120" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="120" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A120" s="41" t="s">
         <v>579</v>
       </c>
@@ -15897,7 +15915,7 @@
       <c r="AA120" s="21"/>
       <c r="AB120" s="21"/>
     </row>
-    <row r="121" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="121" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A121" s="41" t="s">
         <v>579</v>
       </c>
@@ -15955,7 +15973,7 @@
       <c r="AA121" s="21"/>
       <c r="AB121" s="21"/>
     </row>
-    <row r="122" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="122" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A122" s="41" t="s">
         <v>579</v>
       </c>
@@ -15980,7 +15998,9 @@
       <c r="H122" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I122" s="21"/>
+      <c r="I122" s="21" t="s">
+        <v>753</v>
+      </c>
       <c r="J122" s="73">
         <v>43555</v>
       </c>
@@ -16011,7 +16031,7 @@
       <c r="AA122" s="21"/>
       <c r="AB122" s="21"/>
     </row>
-    <row r="123" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="123" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A123" s="41" t="s">
         <v>579</v>
       </c>
@@ -16069,7 +16089,7 @@
       <c r="AA123" s="21"/>
       <c r="AB123" s="21"/>
     </row>
-    <row r="124" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="124" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A124" s="41" t="s">
         <v>579</v>
       </c>
@@ -16094,7 +16114,9 @@
       <c r="H124" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I124" s="21"/>
+      <c r="I124" s="21" t="s">
+        <v>753</v>
+      </c>
       <c r="J124" s="73">
         <v>43555</v>
       </c>
@@ -16125,7 +16147,7 @@
       <c r="AA124" s="21"/>
       <c r="AB124" s="21"/>
     </row>
-    <row r="125" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="125" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A125" s="41" t="s">
         <v>579</v>
       </c>
@@ -16184,7 +16206,7 @@
         <v>758</v>
       </c>
       <c r="T125" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U125" s="62"/>
       <c r="V125" s="66"/>
@@ -16195,7 +16217,7 @@
       <c r="AA125" s="21"/>
       <c r="AB125" s="21"/>
     </row>
-    <row r="126" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="126" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A126" s="41" t="s">
         <v>579</v>
       </c>
@@ -16254,7 +16276,7 @@
         <v>758</v>
       </c>
       <c r="T126" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U126" s="62"/>
       <c r="V126" s="66"/>
@@ -16265,7 +16287,7 @@
       <c r="AA126" s="21"/>
       <c r="AB126" s="21"/>
     </row>
-    <row r="127" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="127" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A127" s="41" t="s">
         <v>579</v>
       </c>
@@ -16337,7 +16359,7 @@
       <c r="AA127" s="21"/>
       <c r="AB127" s="21"/>
     </row>
-    <row r="128" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="128" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A128" s="41" t="s">
         <v>579</v>
       </c>
@@ -16369,10 +16391,10 @@
         <v>43555</v>
       </c>
       <c r="K128" s="14" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="M128" s="14" t="s">
         <v>753</v>
@@ -16396,7 +16418,7 @@
         <v>757</v>
       </c>
       <c r="T128" s="22" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="U128" s="62"/>
       <c r="V128" s="66"/>
@@ -16407,7 +16429,7 @@
       <c r="AA128" s="21"/>
       <c r="AB128" s="21"/>
     </row>
-    <row r="129" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="129" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A129" s="41" t="s">
         <v>579</v>
       </c>
@@ -16466,7 +16488,7 @@
         <v>758</v>
       </c>
       <c r="T129" s="59" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="U129" s="62"/>
       <c r="V129" s="66"/>
@@ -16477,7 +16499,7 @@
       <c r="AA129" s="21"/>
       <c r="AB129" s="21"/>
     </row>
-    <row r="130" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="130" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A130" s="41" t="s">
         <v>579</v>
       </c>
@@ -16547,7 +16569,7 @@
       <c r="AA130" s="21"/>
       <c r="AB130" s="21"/>
     </row>
-    <row r="131" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="131" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A131" s="41" t="s">
         <v>579</v>
       </c>
@@ -16606,7 +16628,7 @@
         <v>758</v>
       </c>
       <c r="T131" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U131" s="62"/>
       <c r="V131" s="66"/>
@@ -16617,7 +16639,7 @@
       <c r="AA131" s="21"/>
       <c r="AB131" s="21"/>
     </row>
-    <row r="132" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="132" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A132" s="41" t="s">
         <v>579</v>
       </c>
@@ -16661,7 +16683,7 @@
         <v>43591</v>
       </c>
       <c r="O132" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P132" s="21" t="s">
         <v>758</v>
@@ -16676,7 +16698,7 @@
         <v>758</v>
       </c>
       <c r="T132" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U132" s="62"/>
       <c r="V132" s="66"/>
@@ -16687,7 +16709,7 @@
       <c r="AA132" s="21"/>
       <c r="AB132" s="21"/>
     </row>
-    <row r="133" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="133" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A133" s="41" t="s">
         <v>579</v>
       </c>
@@ -16746,10 +16768,10 @@
         <v>758</v>
       </c>
       <c r="T133" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U133" s="21" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="V133" s="66"/>
       <c r="W133" s="23"/>
@@ -16759,7 +16781,7 @@
       <c r="AA133" s="21"/>
       <c r="AB133" s="21"/>
     </row>
-    <row r="134" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="134" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A134" s="41" t="s">
         <v>579</v>
       </c>
@@ -16829,7 +16851,7 @@
       <c r="AA134" s="21"/>
       <c r="AB134" s="21"/>
     </row>
-    <row r="135" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="135" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A135" s="41" t="s">
         <v>579</v>
       </c>
@@ -16871,7 +16893,7 @@
       </c>
       <c r="N135" s="21"/>
       <c r="O135" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="P135" s="21" t="s">
         <v>758</v>
@@ -16886,7 +16908,7 @@
         <v>758</v>
       </c>
       <c r="T135" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U135" s="62"/>
       <c r="V135" s="66"/>
@@ -16897,7 +16919,7 @@
       <c r="AA135" s="21"/>
       <c r="AB135" s="21"/>
     </row>
-    <row r="136" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="136" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A136" s="41" t="s">
         <v>579</v>
       </c>
@@ -16956,7 +16978,7 @@
         <v>758</v>
       </c>
       <c r="T136" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U136" s="62"/>
       <c r="V136" s="66"/>
@@ -16967,7 +16989,7 @@
       <c r="AA136" s="21"/>
       <c r="AB136" s="21"/>
     </row>
-    <row r="137" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="137" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A137" s="41" t="s">
         <v>579</v>
       </c>
@@ -17026,7 +17048,7 @@
         <v>758</v>
       </c>
       <c r="T137" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U137" s="62"/>
       <c r="V137" s="66"/>
@@ -17037,7 +17059,7 @@
       <c r="AA137" s="21"/>
       <c r="AB137" s="21"/>
     </row>
-    <row r="138" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="138" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A138" s="41" t="s">
         <v>579</v>
       </c>
@@ -17081,7 +17103,7 @@
         <v>43591</v>
       </c>
       <c r="O138" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="P138" s="21" t="s">
         <v>758</v>
@@ -17096,7 +17118,7 @@
         <v>758</v>
       </c>
       <c r="T138" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U138" s="62"/>
       <c r="V138" s="66"/>
@@ -17107,7 +17129,7 @@
       <c r="AA138" s="21"/>
       <c r="AB138" s="21"/>
     </row>
-    <row r="139" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="139" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A139" s="41" t="s">
         <v>579</v>
       </c>
@@ -17166,7 +17188,7 @@
         <v>758</v>
       </c>
       <c r="T139" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U139" s="62"/>
       <c r="V139" s="66"/>
@@ -17177,7 +17199,7 @@
       <c r="AA139" s="21"/>
       <c r="AB139" s="21"/>
     </row>
-    <row r="140" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="140" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A140" s="41" t="s">
         <v>579</v>
       </c>
@@ -17247,7 +17269,7 @@
       <c r="AA140" s="21"/>
       <c r="AB140" s="21"/>
     </row>
-    <row r="141" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="141" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A141" s="41" t="s">
         <v>579</v>
       </c>
@@ -17317,7 +17339,7 @@
       <c r="AA141" s="21"/>
       <c r="AB141" s="21"/>
     </row>
-    <row r="142" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="142" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A142" s="41" t="s">
         <v>579</v>
       </c>
@@ -17387,7 +17409,7 @@
       <c r="AA142" s="21"/>
       <c r="AB142" s="21"/>
     </row>
-    <row r="143" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="143" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A143" s="41" t="s">
         <v>579</v>
       </c>
@@ -17457,7 +17479,7 @@
       <c r="AA143" s="21"/>
       <c r="AB143" s="21"/>
     </row>
-    <row r="144" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="144" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A144" s="41" t="s">
         <v>579</v>
       </c>
@@ -17527,7 +17549,7 @@
       <c r="AA144" s="21"/>
       <c r="AB144" s="21"/>
     </row>
-    <row r="145" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="145" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A145" s="41" t="s">
         <v>579</v>
       </c>
@@ -17597,7 +17619,7 @@
       <c r="AA145" s="21"/>
       <c r="AB145" s="21"/>
     </row>
-    <row r="146" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="146" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A146" s="41" t="s">
         <v>579</v>
       </c>
@@ -17667,7 +17689,7 @@
       <c r="AA146" s="21"/>
       <c r="AB146" s="21"/>
     </row>
-    <row r="147" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="147" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A147" s="41" t="s">
         <v>579</v>
       </c>
@@ -17711,7 +17733,7 @@
         <v>43591</v>
       </c>
       <c r="O147" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="P147" s="21" t="s">
         <v>758</v>
@@ -17726,7 +17748,7 @@
         <v>758</v>
       </c>
       <c r="T147" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U147" s="62"/>
       <c r="V147" s="66"/>
@@ -17737,7 +17759,7 @@
       <c r="AA147" s="21"/>
       <c r="AB147" s="21"/>
     </row>
-    <row r="148" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="148" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A148" s="41" t="s">
         <v>579</v>
       </c>
@@ -17781,7 +17803,7 @@
         <v>43591</v>
       </c>
       <c r="O148" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="P148" s="21" t="s">
         <v>758</v>
@@ -17796,7 +17818,7 @@
         <v>758</v>
       </c>
       <c r="T148" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U148" s="62"/>
       <c r="V148" s="66"/>
@@ -17807,7 +17829,7 @@
       <c r="AA148" s="21"/>
       <c r="AB148" s="21"/>
     </row>
-    <row r="149" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="149" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A149" s="41" t="s">
         <v>579</v>
       </c>
@@ -17877,7 +17899,7 @@
       <c r="AA149" s="21"/>
       <c r="AB149" s="21"/>
     </row>
-    <row r="150" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="150" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A150" s="41" t="s">
         <v>579</v>
       </c>
@@ -17936,7 +17958,7 @@
         <v>758</v>
       </c>
       <c r="T150" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U150" s="62"/>
       <c r="V150" s="66"/>
@@ -17947,7 +17969,7 @@
       <c r="AA150" s="21"/>
       <c r="AB150" s="21"/>
     </row>
-    <row r="151" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="151" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A151" s="41" t="s">
         <v>579</v>
       </c>
@@ -18005,7 +18027,7 @@
       <c r="AA151" s="21"/>
       <c r="AB151" s="21"/>
     </row>
-    <row r="152" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="152" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A152" s="41" t="s">
         <v>579</v>
       </c>
@@ -18063,7 +18085,7 @@
       <c r="AA152" s="21"/>
       <c r="AB152" s="21"/>
     </row>
-    <row r="153" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="153" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A153" s="41" t="s">
         <v>579</v>
       </c>
@@ -18101,13 +18123,13 @@
         <v>765</v>
       </c>
       <c r="M153" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="N153" s="73">
         <v>43591</v>
       </c>
       <c r="O153" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="P153" s="23" t="s">
         <v>758</v>
@@ -18122,7 +18144,7 @@
         <v>758</v>
       </c>
       <c r="T153" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U153" s="62"/>
       <c r="V153" s="66"/>
@@ -18133,7 +18155,7 @@
       <c r="AA153" s="21"/>
       <c r="AB153" s="21"/>
     </row>
-    <row r="154" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="154" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A154" s="41" t="s">
         <v>579</v>
       </c>
@@ -18182,7 +18204,7 @@
         <v>758</v>
       </c>
       <c r="T154" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U154" s="62"/>
       <c r="V154" s="66"/>
@@ -18193,7 +18215,7 @@
       <c r="AA154" s="21"/>
       <c r="AB154" s="21"/>
     </row>
-    <row r="155" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="155" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A155" s="41" t="s">
         <v>579</v>
       </c>
@@ -18252,7 +18274,7 @@
         <v>758</v>
       </c>
       <c r="T155" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U155" s="62"/>
       <c r="V155" s="66"/>
@@ -18263,7 +18285,7 @@
       <c r="AA155" s="21"/>
       <c r="AB155" s="21"/>
     </row>
-    <row r="156" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="156" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A156" s="41" t="s">
         <v>579</v>
       </c>
@@ -18307,7 +18329,7 @@
         <v>43591</v>
       </c>
       <c r="O156" s="59" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="P156" s="21" t="s">
         <v>758</v>
@@ -18322,7 +18344,7 @@
         <v>758</v>
       </c>
       <c r="T156" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U156" s="62"/>
       <c r="V156" s="66"/>
@@ -18333,7 +18355,7 @@
       <c r="AA156" s="21"/>
       <c r="AB156" s="21"/>
     </row>
-    <row r="157" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="157" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A157" s="41" t="s">
         <v>579</v>
       </c>
@@ -18391,7 +18413,7 @@
       <c r="AA157" s="21"/>
       <c r="AB157" s="21"/>
     </row>
-    <row r="158" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="158" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A158" s="41" t="s">
         <v>579</v>
       </c>
@@ -18449,7 +18471,7 @@
       <c r="AA158" s="21"/>
       <c r="AB158" s="21"/>
     </row>
-    <row r="159" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="159" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A159" s="41" t="s">
         <v>579</v>
       </c>
@@ -18507,7 +18529,7 @@
       <c r="AA159" s="21"/>
       <c r="AB159" s="21"/>
     </row>
-    <row r="160" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="160" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A160" s="41" t="s">
         <v>579</v>
       </c>
@@ -18542,12 +18564,12 @@
       <c r="L160" s="21"/>
       <c r="M160" s="21"/>
       <c r="N160" s="21"/>
-      <c r="O160" s="21"/>
+      <c r="O160"/>
       <c r="P160" s="21" t="s">
         <v>758</v>
       </c>
       <c r="Q160" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R160" s="21" t="s">
         <v>758</v>
@@ -18565,7 +18587,7 @@
       <c r="AA160" s="21"/>
       <c r="AB160" s="21"/>
     </row>
-    <row r="161" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="161" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A161" s="41" t="s">
         <v>579</v>
       </c>
@@ -18623,7 +18645,7 @@
       <c r="AA161" s="21"/>
       <c r="AB161" s="21"/>
     </row>
-    <row r="162" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="162" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A162" s="41" t="s">
         <v>579</v>
       </c>
@@ -18682,7 +18704,7 @@
         <v>758</v>
       </c>
       <c r="T162" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U162" s="62"/>
       <c r="V162" s="66"/>
@@ -18693,7 +18715,7 @@
       <c r="AA162" s="21"/>
       <c r="AB162" s="21"/>
     </row>
-    <row r="163" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="163" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A163" s="41" t="s">
         <v>579</v>
       </c>
@@ -18752,7 +18774,7 @@
         <v>758</v>
       </c>
       <c r="T163" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U163" s="62"/>
       <c r="V163" s="66"/>
@@ -18763,7 +18785,7 @@
       <c r="AA163" s="21"/>
       <c r="AB163" s="21"/>
     </row>
-    <row r="164" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="164" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A164" s="41" t="s">
         <v>579</v>
       </c>
@@ -18821,7 +18843,7 @@
       <c r="AA164" s="21"/>
       <c r="AB164" s="21"/>
     </row>
-    <row r="165" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="165" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A165" s="41" t="s">
         <v>579</v>
       </c>
@@ -18865,7 +18887,7 @@
         <v>43591</v>
       </c>
       <c r="O165" s="14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="P165" s="21" t="s">
         <v>758</v>
@@ -18880,7 +18902,7 @@
         <v>758</v>
       </c>
       <c r="T165" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U165" s="62"/>
       <c r="V165" s="66"/>
@@ -18891,7 +18913,7 @@
       <c r="AA165" s="21"/>
       <c r="AB165" s="21"/>
     </row>
-    <row r="166" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="166" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A166" s="41" t="s">
         <v>579</v>
       </c>
@@ -18933,7 +18955,7 @@
       </c>
       <c r="N166" s="21"/>
       <c r="O166" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="P166" s="21" t="s">
         <v>758</v>
@@ -18948,7 +18970,7 @@
         <v>758</v>
       </c>
       <c r="T166" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U166" s="62"/>
       <c r="V166" s="66"/>
@@ -18959,7 +18981,7 @@
       <c r="AA166" s="21"/>
       <c r="AB166" s="21"/>
     </row>
-    <row r="167" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="167" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A167" s="41" t="s">
         <v>579</v>
       </c>
@@ -19015,7 +19037,7 @@
       <c r="AA167" s="21"/>
       <c r="AB167" s="21"/>
     </row>
-    <row r="168" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="168" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A168" s="41" t="s">
         <v>579</v>
       </c>
@@ -19074,7 +19096,7 @@
         <v>758</v>
       </c>
       <c r="T168" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U168" s="62"/>
       <c r="V168" s="66"/>
@@ -19085,7 +19107,7 @@
       <c r="AA168" s="21"/>
       <c r="AB168" s="21"/>
     </row>
-    <row r="169" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="169" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A169" s="41" t="s">
         <v>579</v>
       </c>
@@ -19129,7 +19151,7 @@
         <v>43591</v>
       </c>
       <c r="O169" s="59" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="P169" s="21" t="s">
         <v>758</v>
@@ -19144,7 +19166,7 @@
         <v>758</v>
       </c>
       <c r="T169" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U169" s="62"/>
       <c r="V169" s="66"/>
@@ -19155,7 +19177,7 @@
       <c r="AA169" s="21"/>
       <c r="AB169" s="21"/>
     </row>
-    <row r="170" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="170" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A170" s="41" t="s">
         <v>579</v>
       </c>
@@ -19199,7 +19221,7 @@
         <v>43591</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P170" s="23" t="s">
         <v>758</v>
@@ -19214,7 +19236,7 @@
         <v>758</v>
       </c>
       <c r="T170" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U170" s="62"/>
       <c r="V170" s="66"/>
@@ -19225,7 +19247,7 @@
       <c r="AA170" s="21"/>
       <c r="AB170" s="21"/>
     </row>
-    <row r="171" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="171" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A171" s="41" t="s">
         <v>579</v>
       </c>
@@ -19295,7 +19317,7 @@
       <c r="AA171" s="21"/>
       <c r="AB171" s="21"/>
     </row>
-    <row r="172" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="172" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A172" s="41" t="s">
         <v>579</v>
       </c>
@@ -19365,7 +19387,7 @@
       <c r="AA172" s="21"/>
       <c r="AB172" s="21"/>
     </row>
-    <row r="173" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="173" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A173" s="41" t="s">
         <v>579</v>
       </c>
@@ -19424,7 +19446,7 @@
         <v>758</v>
       </c>
       <c r="T173" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U173" s="62"/>
       <c r="V173" s="66"/>
@@ -19435,7 +19457,7 @@
       <c r="AA173" s="21"/>
       <c r="AB173" s="21"/>
     </row>
-    <row r="174" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="174" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A174" s="41" t="s">
         <v>579</v>
       </c>
@@ -19493,7 +19515,7 @@
       <c r="AA174" s="21"/>
       <c r="AB174" s="21"/>
     </row>
-    <row r="175" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="175" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A175" s="41" t="s">
         <v>579</v>
       </c>
@@ -19551,7 +19573,7 @@
       <c r="AA175" s="21"/>
       <c r="AB175" s="21"/>
     </row>
-    <row r="176" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="176" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A176" s="41" t="s">
         <v>579</v>
       </c>
@@ -19609,7 +19631,7 @@
       <c r="AA176" s="21"/>
       <c r="AB176" s="21"/>
     </row>
-    <row r="177" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="177" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A177" s="41" t="s">
         <v>579</v>
       </c>
@@ -19650,7 +19672,7 @@
       <c r="R177" s="21"/>
       <c r="S177" s="21"/>
       <c r="T177" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U177" s="62"/>
       <c r="V177" s="66"/>
@@ -19661,7 +19683,7 @@
       <c r="AA177" s="21"/>
       <c r="AB177" s="21"/>
     </row>
-    <row r="178" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="178" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A178" s="41" t="s">
         <v>579</v>
       </c>
@@ -19719,7 +19741,7 @@
       <c r="AA178" s="21"/>
       <c r="AB178" s="21"/>
     </row>
-    <row r="179" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="179" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A179" s="41" t="s">
         <v>579</v>
       </c>
@@ -19775,7 +19797,7 @@
       <c r="AA179" s="21"/>
       <c r="AB179" s="21"/>
     </row>
-    <row r="180" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="180" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A180" s="41" t="s">
         <v>579</v>
       </c>
@@ -19833,7 +19855,7 @@
       <c r="AA180" s="21"/>
       <c r="AB180" s="21"/>
     </row>
-    <row r="181" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="181" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A181" s="41" t="s">
         <v>579</v>
       </c>
@@ -19891,7 +19913,7 @@
       <c r="AA181" s="21"/>
       <c r="AB181" s="21"/>
     </row>
-    <row r="182" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="182" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A182" s="41" t="s">
         <v>579</v>
       </c>
@@ -19935,7 +19957,7 @@
         <v>43591</v>
       </c>
       <c r="O182" s="59" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="P182" s="21" t="s">
         <v>758</v>
@@ -19950,7 +19972,7 @@
         <v>758</v>
       </c>
       <c r="T182" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U182" s="62"/>
       <c r="V182" s="66"/>
@@ -19961,7 +19983,7 @@
       <c r="AA182" s="21"/>
       <c r="AB182" s="21"/>
     </row>
-    <row r="183" spans="1:28" s="6" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="183" spans="1:28" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A183" s="41" t="s">
         <v>579</v>
       </c>
@@ -20005,7 +20027,7 @@
         <v>43591</v>
       </c>
       <c r="O183" s="59" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="P183" s="21" t="s">
         <v>758</v>
@@ -20020,7 +20042,7 @@
         <v>758</v>
       </c>
       <c r="T183" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U183" s="62"/>
       <c r="V183" s="66"/>
@@ -20031,7 +20053,7 @@
       <c r="AA183" s="21"/>
       <c r="AB183" s="21"/>
     </row>
-    <row r="184" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="184" spans="1:28" ht="19.95" customHeight="1">
       <c r="A184" s="41" t="s">
         <v>579</v>
       </c>
@@ -20087,7 +20109,7 @@
       <c r="AA184" s="59"/>
       <c r="AB184" s="59"/>
     </row>
-    <row r="185" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="185" spans="1:28" ht="19.95" customHeight="1">
       <c r="A185" s="41" t="s">
         <v>579</v>
       </c>
@@ -20157,7 +20179,7 @@
       <c r="AA185" s="59"/>
       <c r="AB185" s="59"/>
     </row>
-    <row r="186" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="186" spans="1:28" ht="19.95" customHeight="1">
       <c r="A186" s="41" t="s">
         <v>579</v>
       </c>
@@ -20227,7 +20249,7 @@
       <c r="AA186" s="59"/>
       <c r="AB186" s="59"/>
     </row>
-    <row r="187" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="187" spans="1:28" ht="19.95" customHeight="1">
       <c r="A187" s="41" t="s">
         <v>579</v>
       </c>
@@ -20297,7 +20319,7 @@
       <c r="AA187" s="59"/>
       <c r="AB187" s="59"/>
     </row>
-    <row r="188" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="188" spans="1:28" ht="19.95" customHeight="1">
       <c r="A188" s="41" t="s">
         <v>579</v>
       </c>
@@ -20367,7 +20389,7 @@
       <c r="AA188" s="59"/>
       <c r="AB188" s="59"/>
     </row>
-    <row r="189" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="189" spans="1:28" ht="19.95" customHeight="1">
       <c r="A189" s="41" t="s">
         <v>579</v>
       </c>
@@ -20399,10 +20421,10 @@
         <v>43555</v>
       </c>
       <c r="K189" s="23" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L189" s="59" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="M189" s="59">
         <v>38</v>
@@ -20426,7 +20448,7 @@
         <v>758</v>
       </c>
       <c r="T189" s="59" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U189" s="63"/>
       <c r="V189" s="66"/>
@@ -20437,7 +20459,7 @@
       <c r="AA189" s="59"/>
       <c r="AB189" s="59"/>
     </row>
-    <row r="190" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="190" spans="1:28" ht="19.95" customHeight="1">
       <c r="A190" s="41" t="s">
         <v>579</v>
       </c>
@@ -20481,7 +20503,7 @@
         <v>43591</v>
       </c>
       <c r="O190" s="59" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="P190" s="21" t="s">
         <v>758</v>
@@ -20496,7 +20518,7 @@
         <v>758</v>
       </c>
       <c r="T190" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U190" s="63"/>
       <c r="V190" s="66"/>
@@ -20507,7 +20529,7 @@
       <c r="AA190" s="59"/>
       <c r="AB190" s="59"/>
     </row>
-    <row r="191" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="191" spans="1:28" ht="19.95" customHeight="1">
       <c r="A191" s="41" t="s">
         <v>579</v>
       </c>
@@ -20539,7 +20561,7 @@
         <v>43555</v>
       </c>
       <c r="K191" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L191" s="23" t="s">
         <v>759</v>
@@ -20566,7 +20588,7 @@
         <v>758</v>
       </c>
       <c r="T191" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U191" s="63"/>
       <c r="V191" s="66"/>
@@ -20577,7 +20599,7 @@
       <c r="AA191" s="59"/>
       <c r="AB191" s="59"/>
     </row>
-    <row r="192" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="192" spans="1:28" ht="19.95" customHeight="1">
       <c r="A192" s="41" t="s">
         <v>579</v>
       </c>
@@ -20621,7 +20643,7 @@
         <v>43591</v>
       </c>
       <c r="O192" s="14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="P192" s="21" t="s">
         <v>758</v>
@@ -20636,7 +20658,7 @@
         <v>758</v>
       </c>
       <c r="T192" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U192" s="63"/>
       <c r="V192" s="66"/>
@@ -20647,7 +20669,7 @@
       <c r="AA192" s="59"/>
       <c r="AB192" s="59"/>
     </row>
-    <row r="193" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="193" spans="1:28" ht="19.95" customHeight="1">
       <c r="A193" s="41" t="s">
         <v>579</v>
       </c>
@@ -20705,7 +20727,7 @@
       <c r="AA193" s="59"/>
       <c r="AB193" s="59"/>
     </row>
-    <row r="194" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="194" spans="1:28" ht="19.95" customHeight="1">
       <c r="A194" s="41" t="s">
         <v>579</v>
       </c>
@@ -20737,7 +20759,7 @@
         <v>43555</v>
       </c>
       <c r="K194" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L194" s="23" t="s">
         <v>759</v>
@@ -20749,7 +20771,7 @@
         <v>41835</v>
       </c>
       <c r="O194" s="14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="P194" s="21" t="s">
         <v>758</v>
@@ -20764,7 +20786,7 @@
         <v>758</v>
       </c>
       <c r="T194" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U194" s="63"/>
       <c r="V194" s="66"/>
@@ -20775,7 +20797,7 @@
       <c r="AA194" s="59"/>
       <c r="AB194" s="59"/>
     </row>
-    <row r="195" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="195" spans="1:28" ht="19.95" customHeight="1">
       <c r="A195" s="41" t="s">
         <v>579</v>
       </c>
@@ -20807,7 +20829,7 @@
         <v>43555</v>
       </c>
       <c r="K195" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L195" s="75" t="s">
         <v>759</v>
@@ -20819,7 +20841,7 @@
         <v>41835</v>
       </c>
       <c r="O195" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="P195" s="21" t="s">
         <v>758</v>
@@ -20834,7 +20856,7 @@
         <v>758</v>
       </c>
       <c r="T195" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U195" s="63"/>
       <c r="V195" s="66"/>
@@ -20845,7 +20867,7 @@
       <c r="AA195" s="59"/>
       <c r="AB195" s="59"/>
     </row>
-    <row r="196" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="196" spans="1:28" ht="19.95" customHeight="1">
       <c r="A196" s="41" t="s">
         <v>579</v>
       </c>
@@ -20877,7 +20899,7 @@
         <v>43555</v>
       </c>
       <c r="K196" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L196" s="23" t="s">
         <v>759</v>
@@ -20889,7 +20911,7 @@
         <v>41835</v>
       </c>
       <c r="O196" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="P196" s="21" t="s">
         <v>758</v>
@@ -20904,7 +20926,7 @@
         <v>758</v>
       </c>
       <c r="T196" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U196" s="63"/>
       <c r="V196" s="66"/>
@@ -20915,7 +20937,7 @@
       <c r="AA196" s="59"/>
       <c r="AB196" s="59"/>
     </row>
-    <row r="197" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="197" spans="1:28" ht="19.95" customHeight="1">
       <c r="A197" s="41" t="s">
         <v>579</v>
       </c>
@@ -20973,7 +20995,7 @@
       <c r="AA197" s="59"/>
       <c r="AB197" s="59"/>
     </row>
-    <row r="198" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="198" spans="1:28" ht="19.95" customHeight="1">
       <c r="A198" s="41" t="s">
         <v>579</v>
       </c>
@@ -21005,7 +21027,7 @@
         <v>43555</v>
       </c>
       <c r="K198" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L198" s="23" t="s">
         <v>759</v>
@@ -21017,7 +21039,7 @@
         <v>41835</v>
       </c>
       <c r="O198" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="P198" s="21" t="s">
         <v>758</v>
@@ -21032,7 +21054,7 @@
         <v>758</v>
       </c>
       <c r="T198" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U198" s="63"/>
       <c r="V198" s="66"/>
@@ -21043,7 +21065,7 @@
       <c r="AA198" s="59"/>
       <c r="AB198" s="59"/>
     </row>
-    <row r="199" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="199" spans="1:28" ht="19.95" customHeight="1">
       <c r="A199" s="41" t="s">
         <v>579</v>
       </c>
@@ -21075,7 +21097,7 @@
         <v>43555</v>
       </c>
       <c r="K199" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L199" s="23" t="s">
         <v>759</v>
@@ -21102,7 +21124,7 @@
         <v>758</v>
       </c>
       <c r="T199" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U199" s="63"/>
       <c r="V199" s="66"/>
@@ -21113,7 +21135,7 @@
       <c r="AA199" s="59"/>
       <c r="AB199" s="59"/>
     </row>
-    <row r="200" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="200" spans="1:28" ht="19.95" customHeight="1">
       <c r="A200" s="41" t="s">
         <v>579</v>
       </c>
@@ -21145,7 +21167,7 @@
         <v>43555</v>
       </c>
       <c r="K200" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L200" s="23" t="s">
         <v>759</v>
@@ -21157,7 +21179,7 @@
         <v>41835</v>
       </c>
       <c r="O200" s="14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="P200" s="21" t="s">
         <v>758</v>
@@ -21172,7 +21194,7 @@
         <v>758</v>
       </c>
       <c r="T200" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U200" s="63"/>
       <c r="V200" s="66"/>
@@ -21183,7 +21205,7 @@
       <c r="AA200" s="59"/>
       <c r="AB200" s="59"/>
     </row>
-    <row r="201" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="201" spans="1:28" ht="19.95" customHeight="1">
       <c r="A201" s="41" t="s">
         <v>579</v>
       </c>
@@ -21215,7 +21237,7 @@
         <v>43555</v>
       </c>
       <c r="K201" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L201" s="23" t="s">
         <v>759</v>
@@ -21225,7 +21247,7 @@
       </c>
       <c r="N201" s="79"/>
       <c r="O201" s="14" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="P201" s="21" t="s">
         <v>758</v>
@@ -21240,7 +21262,7 @@
         <v>758</v>
       </c>
       <c r="T201" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U201" s="63"/>
       <c r="V201" s="66"/>
@@ -21251,7 +21273,7 @@
       <c r="AA201" s="59"/>
       <c r="AB201" s="59"/>
     </row>
-    <row r="202" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="202" spans="1:28" ht="19.95" customHeight="1">
       <c r="A202" s="41" t="s">
         <v>579</v>
       </c>
@@ -21283,7 +21305,7 @@
         <v>43555</v>
       </c>
       <c r="K202" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L202" s="23" t="s">
         <v>759</v>
@@ -21310,7 +21332,7 @@
         <v>758</v>
       </c>
       <c r="T202" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U202" s="63"/>
       <c r="V202" s="66"/>
@@ -21321,7 +21343,7 @@
       <c r="AA202" s="59"/>
       <c r="AB202" s="59"/>
     </row>
-    <row r="203" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="203" spans="1:28" ht="19.95" customHeight="1">
       <c r="A203" s="41" t="s">
         <v>579</v>
       </c>
@@ -21358,14 +21380,14 @@
       <c r="L203" s="23" t="s">
         <v>765</v>
       </c>
-      <c r="M203" s="21">
-        <v>12</v>
+      <c r="M203" s="21" t="s">
+        <v>956</v>
       </c>
       <c r="N203" s="76">
         <v>43591</v>
       </c>
-      <c r="O203" s="21" t="s">
-        <v>753</v>
+      <c r="O203" t="s">
+        <v>955</v>
       </c>
       <c r="P203" s="21" t="s">
         <v>757</v>
@@ -21391,7 +21413,7 @@
       <c r="AA203" s="59"/>
       <c r="AB203" s="59"/>
     </row>
-    <row r="204" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="204" spans="1:28" ht="19.95" customHeight="1">
       <c r="A204" s="41" t="s">
         <v>579</v>
       </c>
@@ -21450,7 +21472,7 @@
         <v>758</v>
       </c>
       <c r="T204" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U204" s="63"/>
       <c r="V204" s="66"/>
@@ -21461,7 +21483,7 @@
       <c r="AA204" s="59"/>
       <c r="AB204" s="59"/>
     </row>
-    <row r="205" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="205" spans="1:28" ht="19.95" customHeight="1">
       <c r="A205" s="41" t="s">
         <v>579</v>
       </c>
@@ -21505,7 +21527,7 @@
         <v>43591</v>
       </c>
       <c r="O205" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="P205" s="21" t="s">
         <v>758</v>
@@ -21520,7 +21542,7 @@
         <v>758</v>
       </c>
       <c r="T205" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U205" s="63"/>
       <c r="V205" s="66"/>
@@ -21531,7 +21553,7 @@
       <c r="AA205" s="59"/>
       <c r="AB205" s="59"/>
     </row>
-    <row r="206" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="206" spans="1:28" ht="19.95" customHeight="1">
       <c r="A206" s="41" t="s">
         <v>579</v>
       </c>
@@ -21563,7 +21585,7 @@
         <v>43555</v>
       </c>
       <c r="K206" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L206" s="23" t="s">
         <v>759</v>
@@ -21590,7 +21612,7 @@
         <v>758</v>
       </c>
       <c r="T206" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U206" s="63"/>
       <c r="V206" s="66"/>
@@ -21601,7 +21623,7 @@
       <c r="AA206" s="59"/>
       <c r="AB206" s="59"/>
     </row>
-    <row r="207" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="207" spans="1:28" ht="19.95" customHeight="1">
       <c r="A207" s="41" t="s">
         <v>579</v>
       </c>
@@ -21660,7 +21682,7 @@
         <v>758</v>
       </c>
       <c r="T207" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U207" s="63"/>
       <c r="V207" s="66"/>
@@ -21671,7 +21693,7 @@
       <c r="AA207" s="59"/>
       <c r="AB207" s="59"/>
     </row>
-    <row r="208" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="208" spans="1:28" ht="19.95" customHeight="1">
       <c r="A208" s="41" t="s">
         <v>579</v>
       </c>
@@ -21703,19 +21725,19 @@
         <v>43555</v>
       </c>
       <c r="K208" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="L208" s="23" t="s">
         <v>759</v>
       </c>
       <c r="M208" s="21">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N208" s="79">
         <v>41835</v>
       </c>
-      <c r="O208" s="14" t="s">
-        <v>831</v>
+      <c r="O208" t="s">
+        <v>952</v>
       </c>
       <c r="P208" s="23" t="s">
         <v>758</v>
@@ -21730,7 +21752,7 @@
         <v>758</v>
       </c>
       <c r="T208" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U208" s="63"/>
       <c r="V208" s="66"/>
@@ -21741,7 +21763,7 @@
       <c r="AA208" s="59"/>
       <c r="AB208" s="59"/>
     </row>
-    <row r="209" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="209" spans="1:28" ht="19.95" customHeight="1">
       <c r="A209" s="41" t="s">
         <v>579</v>
       </c>
@@ -21799,7 +21821,7 @@
       <c r="AA209" s="59"/>
       <c r="AB209" s="59"/>
     </row>
-    <row r="210" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="210" spans="1:28" ht="19.95" customHeight="1">
       <c r="A210" s="41" t="s">
         <v>579</v>
       </c>
@@ -21858,7 +21880,7 @@
         <v>758</v>
       </c>
       <c r="T210" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="U210" s="63"/>
       <c r="V210" s="66"/>
@@ -21869,7 +21891,7 @@
       <c r="AA210" s="59"/>
       <c r="AB210" s="59"/>
     </row>
-    <row r="211" spans="1:28" ht="19.899999999999999" customHeight="1">
+    <row r="211" spans="1:28" ht="19.95" customHeight="1">
       <c r="A211" s="41" t="s">
         <v>579</v>
       </c>
@@ -21907,7 +21929,7 @@
         <v>765</v>
       </c>
       <c r="M211" s="59" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="N211" s="76">
         <v>43591</v>
@@ -21928,7 +21950,7 @@
         <v>758</v>
       </c>
       <c r="T211" s="59" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="U211" s="63"/>
       <c r="V211" s="66"/>
@@ -21941,7 +21963,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <autoFilter ref="A1:AL211"/>
+  <autoFilter ref="A1:AL211" xr:uid="{1F618CCC-096B-4C3B-AB33-6CF5497686E1}"/>
   <mergeCells count="1">
     <mergeCell ref="AJ2:AL2"/>
   </mergeCells>
@@ -21955,64 +21977,64 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V211 P200:S201 P30:S30 P51:S58 P156:S167 P173:S185 P60:S62 P192:S198 P151:S152 P95:S96 P138:S149 P2:S10 P73:S74 P211:S211 P46:S47 P115:S115 P76:S80 P169:S169 P98:S98 P100:S100 P33:S44 P12:S13 P87:S93 P22:S25 P117:S118 P104:S104 P127:S130 P27:S27 P120:S124 P188:S190 P64:S64 P154:S154 P83:S85 P132:S132 P135:S135 P205:S205 P203:S203 P106:S113 P70:S70 P15:S19 P209:S209">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V211 P200:S201 P30:S30 P51:S58 P156:S167 P173:S185 P60:S62 P192:S198 P151:S152 P95:S96 P138:S149 P2:S10 P73:S74 P211:S211 P46:S47 P115:S115 P76:S80 P169:S169 P98:S98 P100:S100 P33:S44 P12:S13 P87:S93 P22:S25 P117:S118 P104:S104 P127:S130 P27:S27 P120:S124 P188:S190 P64:S64 P154:S154 P83:S85 P132:S132 P135:S135 P205:S205 P203:S203 P106:S113 P70:S70 P15:S19 P209:S209" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W211" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>$AK$5:$AK$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z211" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Error accepted, Error not accepted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I190:I209 I2:I23 I25:I31 I33:I61 I63:I65 I68:I73 I75:I78 I85:I104 I106:I128 I130:I136 I138:I166 I168:I170 I173:I178 I180:I183 I211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I190:I209 I211 I25:I31 I33:I61 I63:I65 I68:I73 I75:I78 I85:I104 I2:I23 I130:I136 I138:I166 I168:I170 I173:I178 I180:I183 I106:I128" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"Yes, No, NA"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I179 I79 I32 I62 I187 I74 I210 I105 I184 I137 I167">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I179 I79 I32 I62 I187 I74 I210 I105 I184 I137 I167" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>-999999</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I83:I84 I188:I189">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I83:I84 I188:I189" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L9" r:id="rId1"/>
-    <hyperlink ref="L25" r:id="rId2"/>
-    <hyperlink ref="L80" r:id="rId3"/>
-    <hyperlink ref="L12" r:id="rId4"/>
-    <hyperlink ref="L35" r:id="rId5"/>
-    <hyperlink ref="L39" r:id="rId6"/>
-    <hyperlink ref="L22" r:id="rId7"/>
-    <hyperlink ref="L44" r:id="rId8"/>
-    <hyperlink ref="L41" r:id="rId9"/>
-    <hyperlink ref="L83" r:id="rId10"/>
-    <hyperlink ref="L13" r:id="rId11"/>
-    <hyperlink ref="L40" r:id="rId12"/>
-    <hyperlink ref="L36" r:id="rId13"/>
-    <hyperlink ref="L90" r:id="rId14"/>
-    <hyperlink ref="L195" r:id="rId15"/>
-    <hyperlink ref="L106" r:id="rId16"/>
-    <hyperlink ref="L37" r:id="rId17"/>
-    <hyperlink ref="L43" r:id="rId18"/>
-    <hyperlink ref="L34" r:id="rId19"/>
-    <hyperlink ref="L38" r:id="rId20"/>
-    <hyperlink ref="L24" r:id="rId21"/>
-    <hyperlink ref="L156" r:id="rId22"/>
-    <hyperlink ref="L33" r:id="rId23"/>
-    <hyperlink ref="L42" r:id="rId24"/>
-    <hyperlink ref="L15" r:id="rId25"/>
-    <hyperlink ref="L100" r:id="rId26"/>
-    <hyperlink ref="L98" r:id="rId27"/>
-    <hyperlink ref="L5" r:id="rId28"/>
-    <hyperlink ref="L4" r:id="rId29"/>
-    <hyperlink ref="L30" r:id="rId30"/>
-    <hyperlink ref="L61" r:id="rId31"/>
+    <hyperlink ref="L9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="L25" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="L80" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="L12" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="L35" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="L39" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="L22" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="L44" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="L41" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="L83" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="L13" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="L40" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="L36" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="L90" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="L195" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="L106" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="L37" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="L43" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="L34" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="L38" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="L24" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="L156" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="L33" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="L42" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="L15" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="L100" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="L98" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="L5" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="L4" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="L30" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="L61" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000006000000}">
           <x14:formula1>
             <xm:f>'C:\Governance\supreetha\ICICI Bank Ltd_Governance\[ICICI Bank Ltd_OLD.xlsx]NIC industry'!#REF!</xm:f>
           </x14:formula1>
@@ -22025,47 +22047,47 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BP74"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AF1" sqref="A1:XFD1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="5" max="5" width="27.25" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" customWidth="1"/>
+    <col min="5" max="5" width="27.19921875" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="33" max="39" width="0" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="14.5" customWidth="1"/>
-    <col min="42" max="42" width="16.125" customWidth="1"/>
-    <col min="43" max="43" width="14.875" customWidth="1"/>
-    <col min="44" max="44" width="18.875" customWidth="1"/>
-    <col min="45" max="45" width="8.625" customWidth="1"/>
-    <col min="47" max="47" width="9.75" customWidth="1"/>
-    <col min="48" max="48" width="12.875" customWidth="1"/>
-    <col min="49" max="49" width="15.75" customWidth="1"/>
-    <col min="50" max="50" width="31.375" style="70" customWidth="1"/>
-    <col min="51" max="51" width="34.75" customWidth="1"/>
-    <col min="52" max="52" width="32.75" customWidth="1"/>
+    <col min="42" max="42" width="16.09765625" customWidth="1"/>
+    <col min="43" max="43" width="14.8984375" customWidth="1"/>
+    <col min="44" max="44" width="18.8984375" customWidth="1"/>
+    <col min="45" max="45" width="8.59765625" customWidth="1"/>
+    <col min="47" max="47" width="9.69921875" customWidth="1"/>
+    <col min="48" max="48" width="12.8984375" customWidth="1"/>
+    <col min="49" max="49" width="15.69921875" customWidth="1"/>
+    <col min="50" max="50" width="31.3984375" style="70" customWidth="1"/>
+    <col min="51" max="51" width="34.69921875" customWidth="1"/>
+    <col min="52" max="52" width="32.69921875" customWidth="1"/>
     <col min="53" max="53" width="31" customWidth="1"/>
-    <col min="57" max="57" width="31.75" customWidth="1"/>
+    <col min="57" max="57" width="31.69921875" customWidth="1"/>
     <col min="59" max="59" width="28" customWidth="1"/>
-    <col min="61" max="61" width="27.75" customWidth="1"/>
+    <col min="61" max="61" width="27.69921875" customWidth="1"/>
     <col min="62" max="62" width="29" customWidth="1"/>
-    <col min="66" max="66" width="23.75" customWidth="1"/>
-    <col min="67" max="67" width="30.75" customWidth="1"/>
-    <col min="68" max="68" width="29.75" customWidth="1"/>
+    <col min="66" max="66" width="23.69921875" customWidth="1"/>
+    <col min="67" max="67" width="30.69921875" customWidth="1"/>
+    <col min="68" max="68" width="29.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="107" customFormat="1" ht="18.75">
+    <row r="1" spans="1:68" s="107" customFormat="1" ht="18">
       <c r="A1" s="99" t="s">
         <v>8</v>
       </c>
@@ -22094,52 +22116,52 @@
         <v>11</v>
       </c>
       <c r="J1" s="91" t="s">
+        <v>886</v>
+      </c>
+      <c r="K1" s="91" t="s">
         <v>887</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="L1" s="91" t="s">
         <v>888</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="M1" s="91" t="s">
         <v>889</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="N1" s="91" t="s">
         <v>890</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>891</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>892</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="Q1" s="91" t="s">
         <v>893</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="R1" s="91" t="s">
         <v>894</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="S1" s="91" t="s">
         <v>895</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="T1" s="91" t="s">
         <v>896</v>
       </c>
-      <c r="T1" s="91" t="s">
+      <c r="U1" s="91" t="s">
         <v>897</v>
       </c>
-      <c r="U1" s="91" t="s">
+      <c r="V1" s="91" t="s">
         <v>898</v>
       </c>
-      <c r="V1" s="91" t="s">
-        <v>899</v>
-      </c>
       <c r="W1" s="91" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="X1" s="91" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="Y1" s="91" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Z1" s="92"/>
       <c r="AA1" s="92" t="s">
@@ -22247,11 +22269,11 @@
       <c r="BK1" s="104"/>
       <c r="BL1" s="104"/>
       <c r="BM1" s="106"/>
-      <c r="BN1" s="128" t="s">
+      <c r="BN1" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="BO1" s="129"/>
-      <c r="BP1" s="130"/>
+      <c r="BO1" s="132"/>
+      <c r="BP1" s="133"/>
     </row>
     <row r="2" spans="1:68" s="14" customFormat="1">
       <c r="A2" s="13" t="s">
@@ -22376,7 +22398,7 @@
       <c r="BO2" s="19"/>
       <c r="BP2" s="19"/>
     </row>
-    <row r="3" spans="1:68" s="14" customFormat="1" ht="16.5" thickBot="1">
+    <row r="3" spans="1:68" s="14" customFormat="1" ht="16.2" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>579</v>
       </c>
@@ -22480,7 +22502,7 @@
         <v>758</v>
       </c>
       <c r="AW3" s="21" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AX3" s="69"/>
       <c r="AY3" s="68"/>
@@ -22503,7 +22525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="14" customFormat="1" ht="16.5" thickBot="1">
+    <row r="4" spans="1:68" s="14" customFormat="1" ht="16.2" thickBot="1">
       <c r="A4" s="13" t="s">
         <v>579</v>
       </c>
@@ -22586,7 +22608,7 @@
         <v>756</v>
       </c>
       <c r="AP4" s="21" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AQ4" s="76">
         <v>43960</v>
@@ -22607,7 +22629,7 @@
         <v>758</v>
       </c>
       <c r="AW4" s="21" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AX4" s="69"/>
       <c r="AY4" s="68"/>
@@ -22700,7 +22722,7 @@
         <v>756</v>
       </c>
       <c r="AP5" s="21" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AQ5" s="76">
         <v>43960</v>
@@ -22721,7 +22743,7 @@
         <v>758</v>
       </c>
       <c r="AW5" s="21" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AX5" s="69"/>
       <c r="AY5" s="68"/>
@@ -22832,7 +22854,7 @@
         <v>756</v>
       </c>
       <c r="AP6" s="21" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AQ6" s="76">
         <v>43960</v>
@@ -22853,7 +22875,7 @@
         <v>758</v>
       </c>
       <c r="AW6" s="21" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AX6" s="69"/>
       <c r="AY6" s="68"/>
@@ -22961,7 +22983,7 @@
         <v>756</v>
       </c>
       <c r="AP7" s="21" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AQ7" s="76">
         <v>43960</v>
@@ -22982,7 +23004,7 @@
         <v>758</v>
       </c>
       <c r="AW7" s="21" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AX7" s="69"/>
       <c r="AY7" s="68"/>
@@ -23166,7 +23188,7 @@
         <v>756</v>
       </c>
       <c r="AP9" s="21" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AQ9" s="76">
         <v>43960</v>
@@ -23187,7 +23209,7 @@
         <v>758</v>
       </c>
       <c r="AW9" s="21" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AX9" s="69"/>
       <c r="AY9" s="68"/>
@@ -23836,7 +23858,7 @@
         <v>43960</v>
       </c>
       <c r="AR14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AS14" s="21" t="s">
         <v>758</v>
@@ -23851,7 +23873,7 @@
         <v>758</v>
       </c>
       <c r="AW14" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AX14" s="69"/>
       <c r="AY14" s="68"/>
@@ -23885,7 +23907,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:68" s="14" customFormat="1" ht="16.5" thickBot="1">
+    <row r="15" spans="1:68" s="14" customFormat="1" ht="16.2" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>579</v>
       </c>
@@ -23997,7 +24019,7 @@
       <c r="BK15" s="26"/>
       <c r="BL15" s="26"/>
     </row>
-    <row r="16" spans="1:68" s="14" customFormat="1" ht="16.5" thickBot="1">
+    <row r="16" spans="1:68" s="14" customFormat="1" ht="16.2" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>579</v>
       </c>
@@ -24109,7 +24131,7 @@
       <c r="BK16" s="26"/>
       <c r="BL16" s="26"/>
     </row>
-    <row r="17" spans="1:64" s="14" customFormat="1" ht="16.5" thickBot="1">
+    <row r="17" spans="1:64" s="14" customFormat="1" ht="16.2" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>579</v>
       </c>
@@ -24453,7 +24475,7 @@
         <v>756</v>
       </c>
       <c r="AP20" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AQ20" s="76">
         <v>43960</v>
@@ -24474,7 +24496,7 @@
         <v>758</v>
       </c>
       <c r="AW20" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AX20" s="62"/>
       <c r="AY20" s="66"/>
@@ -24565,10 +24587,10 @@
         <v>758</v>
       </c>
       <c r="AN21" s="14" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AO21" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AP21" s="14" t="s">
         <v>753</v>
@@ -24592,7 +24614,7 @@
         <v>757</v>
       </c>
       <c r="AW21" s="22" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AX21" s="69"/>
       <c r="AY21" s="68"/>
@@ -25703,7 +25725,7 @@
       <c r="BK31" s="26"/>
       <c r="BL31" s="26"/>
     </row>
-    <row r="32" spans="1:64" s="98" customFormat="1" ht="18.75">
+    <row r="32" spans="1:64" s="98" customFormat="1" ht="18">
       <c r="A32" s="90" t="s">
         <v>8</v>
       </c>
@@ -25732,70 +25754,70 @@
         <v>11</v>
       </c>
       <c r="J32" s="91" t="s">
+        <v>899</v>
+      </c>
+      <c r="K32" s="91" t="s">
+        <v>887</v>
+      </c>
+      <c r="L32" s="91" t="s">
         <v>900</v>
       </c>
-      <c r="K32" s="91" t="s">
+      <c r="M32" s="91" t="s">
+        <v>892</v>
+      </c>
+      <c r="N32" s="91" t="s">
         <v>888</v>
       </c>
-      <c r="L32" s="91" t="s">
+      <c r="O32" s="91" t="s">
+        <v>889</v>
+      </c>
+      <c r="P32" s="91" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q32" s="91" t="s">
+        <v>891</v>
+      </c>
+      <c r="R32" s="91" t="s">
+        <v>893</v>
+      </c>
+      <c r="S32" s="91" t="s">
+        <v>895</v>
+      </c>
+      <c r="T32" s="91" t="s">
+        <v>896</v>
+      </c>
+      <c r="U32" s="91" t="s">
         <v>901</v>
       </c>
-      <c r="M32" s="91" t="s">
-        <v>893</v>
-      </c>
-      <c r="N32" s="91" t="s">
-        <v>889</v>
-      </c>
-      <c r="O32" s="91" t="s">
-        <v>890</v>
-      </c>
-      <c r="P32" s="91" t="s">
-        <v>891</v>
-      </c>
-      <c r="Q32" s="91" t="s">
-        <v>892</v>
-      </c>
-      <c r="R32" s="91" t="s">
-        <v>894</v>
-      </c>
-      <c r="S32" s="91" t="s">
-        <v>896</v>
-      </c>
-      <c r="T32" s="91" t="s">
+      <c r="V32" s="91" t="s">
         <v>897</v>
       </c>
-      <c r="U32" s="91" t="s">
+      <c r="W32" s="91" t="s">
         <v>902</v>
       </c>
-      <c r="V32" s="91" t="s">
+      <c r="X32" s="91" t="s">
+        <v>903</v>
+      </c>
+      <c r="Y32" s="91" t="s">
+        <v>904</v>
+      </c>
+      <c r="Z32" s="91" t="s">
+        <v>905</v>
+      </c>
+      <c r="AA32" s="91" t="s">
+        <v>906</v>
+      </c>
+      <c r="AB32" s="91" t="s">
+        <v>907</v>
+      </c>
+      <c r="AC32" s="91" t="s">
+        <v>908</v>
+      </c>
+      <c r="AD32" s="91" t="s">
+        <v>909</v>
+      </c>
+      <c r="AE32" s="91" t="s">
         <v>898</v>
-      </c>
-      <c r="W32" s="91" t="s">
-        <v>903</v>
-      </c>
-      <c r="X32" s="91" t="s">
-        <v>904</v>
-      </c>
-      <c r="Y32" s="91" t="s">
-        <v>905</v>
-      </c>
-      <c r="Z32" s="91" t="s">
-        <v>906</v>
-      </c>
-      <c r="AA32" s="91" t="s">
-        <v>907</v>
-      </c>
-      <c r="AB32" s="91" t="s">
-        <v>908</v>
-      </c>
-      <c r="AC32" s="91" t="s">
-        <v>909</v>
-      </c>
-      <c r="AD32" s="91" t="s">
-        <v>910</v>
-      </c>
-      <c r="AE32" s="91" t="s">
-        <v>899</v>
       </c>
       <c r="AF32" s="91"/>
       <c r="AG32" s="92" t="s">
@@ -26132,7 +26154,7 @@
         <v>758</v>
       </c>
       <c r="AW34" s="21" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AX34" s="69"/>
       <c r="AY34" s="68"/>
@@ -26168,10 +26190,10 @@
         <v>43555</v>
       </c>
       <c r="J35" s="50" t="s">
+        <v>918</v>
+      </c>
+      <c r="K35" s="50" t="s">
         <v>919</v>
-      </c>
-      <c r="K35" s="50" t="s">
-        <v>920</v>
       </c>
       <c r="L35" s="14">
         <v>0</v>
@@ -26180,22 +26202,22 @@
         <v>0</v>
       </c>
       <c r="N35" s="50" t="s">
+        <v>920</v>
+      </c>
+      <c r="O35" s="50" t="s">
         <v>921</v>
       </c>
-      <c r="O35" s="50" t="s">
+      <c r="P35" s="50" t="s">
         <v>922</v>
       </c>
-      <c r="P35" s="50" t="s">
+      <c r="Q35" s="50" t="s">
         <v>923</v>
       </c>
-      <c r="Q35" s="50" t="s">
+      <c r="R35" s="50" t="s">
         <v>924</v>
       </c>
-      <c r="R35" s="50" t="s">
-        <v>925</v>
-      </c>
       <c r="S35" s="50" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="T35" s="50" t="s">
         <v>803</v>
@@ -26204,7 +26226,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="50" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="W35" s="14">
         <v>0</v>
@@ -26231,7 +26253,7 @@
         <v>0</v>
       </c>
       <c r="AE35" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AN35" s="23" t="s">
         <v>764</v>
@@ -26261,7 +26283,7 @@
         <v>758</v>
       </c>
       <c r="AW35" s="59" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AX35" s="69"/>
       <c r="AY35" s="68"/>
@@ -26333,19 +26355,19 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="W36" s="14">
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="Y36" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="Z36" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AA36" s="14">
         <v>0</v>
@@ -26360,7 +26382,7 @@
         <v>0</v>
       </c>
       <c r="AE36" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AN36" s="23" t="s">
         <v>764</v>
@@ -26390,7 +26412,7 @@
         <v>758</v>
       </c>
       <c r="AW36" s="59" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AX36" s="69"/>
       <c r="AY36" s="68"/>
@@ -26513,7 +26535,7 @@
         <v>758</v>
       </c>
       <c r="AW37" s="59" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AX37" s="69"/>
       <c r="AY37" s="68"/>
@@ -26646,10 +26668,10 @@
         <v>43555</v>
       </c>
       <c r="J40" s="50" t="s">
+        <v>918</v>
+      </c>
+      <c r="K40" s="50" t="s">
         <v>919</v>
-      </c>
-      <c r="K40" s="50" t="s">
-        <v>920</v>
       </c>
       <c r="L40" s="14">
         <v>0</v>
@@ -26661,13 +26683,13 @@
         <v>2866438</v>
       </c>
       <c r="O40" s="50" t="s">
+        <v>921</v>
+      </c>
+      <c r="P40" s="50" t="s">
         <v>922</v>
       </c>
-      <c r="P40" s="50" t="s">
+      <c r="Q40" s="50" t="s">
         <v>923</v>
-      </c>
-      <c r="Q40" s="50" t="s">
-        <v>924</v>
       </c>
       <c r="R40" s="6">
         <v>4652740</v>
@@ -26730,7 +26752,7 @@
         <v>758</v>
       </c>
       <c r="AW40" s="59" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AX40" s="69"/>
       <c r="AY40" s="68"/>
@@ -26950,7 +26972,7 @@
         <v>765</v>
       </c>
       <c r="AP42" s="21" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AQ42" s="76">
         <v>43591</v>
@@ -26971,7 +26993,7 @@
         <v>758</v>
       </c>
       <c r="AW42" s="21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AX42" s="69"/>
       <c r="AY42" s="68"/>
@@ -27343,7 +27365,7 @@
         <v>43591</v>
       </c>
       <c r="AR45" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AS45" s="21" t="s">
         <v>758</v>
@@ -27358,7 +27380,7 @@
         <v>758</v>
       </c>
       <c r="AW45" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AX45" s="69"/>
       <c r="AY45" s="68"/>
@@ -27877,7 +27899,7 @@
         <v>765</v>
       </c>
       <c r="AP51" s="59" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AQ51" s="76">
         <v>43591</v>
@@ -27898,7 +27920,7 @@
         <v>758</v>
       </c>
       <c r="AW51" s="59" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AX51" s="63"/>
       <c r="AY51" s="68"/>
@@ -28000,10 +28022,10 @@
         <v>758</v>
       </c>
       <c r="AN52" s="14" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AO52" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AP52" s="14" t="s">
         <v>753</v>
@@ -28027,7 +28049,7 @@
         <v>757</v>
       </c>
       <c r="AW52" s="22" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AX52" s="69"/>
       <c r="AY52" s="68"/>
@@ -29392,6 +29414,10 @@
       <c r="W74" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BP62" xr:uid="{F942DC74-729D-4719-8E11-5C0E2B17E1A3}">
+    <filterColumn colId="65" showButton="0"/>
+    <filterColumn colId="66" showButton="0"/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="BN1:BP1"/>
   </mergeCells>
@@ -29524,58 +29550,58 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:AM11 J42:AM42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:AM11 J42:AM42" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"M, F"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:O8 T19 J25:AM27 J56:AM58 R37:R39 AE37:AE40 S36:T39 W37:AC40 L35:M40 U35:U40 O36:Q39 AF35:AM40 J36:K39 N37:N39 V37:V39 Z4:AM9 X35:Z35 V8:V9 W4:Y8 AD35:AD40 AA35:AC36 W35:W36 S8:U8 T5:T6 S6 U6:V6 P5:P8 J5:J8 Q6:Q8 R4:R9 J20:K20 L19:L20 O20 V19:AM20 Q20:R20 M20 J50:M51 N50 O50:R51 U50:AM51 S50:T50">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:O8 T19 J25:AM27 J56:AM58 R37:R39 AE37:AE40 S36:T39 W37:AC40 L35:M40 U35:U40 O36:Q39 AF35:AM40 J36:K39 N37:N39 V37:V39 Z4:AM9 X35:Z35 V8:V9 W4:Y8 AD35:AD40 AA35:AC36 W35:W36 S8:U8 T5:T6 S6 U6:V6 P5:P8 J5:J8 Q6:Q8 R4:R9 J20:K20 L19:L20 O20 V19:AM20 Q20:R20 M20 J50:M51 N50 O50:R51 U50:AM51 S50:T50" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>-99999999</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:AM18 J48:AM49">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:AM18 J48:AM49" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>3654</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS20:AV21 AS59:AV62 AY33:AY62 AS28:AV31 AY2:AY31 AS51:AV52 AS2:AV18 AS54:AV56 AS23:AV25 AS33:AV49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS20:AV21 AS59:AV62 AY33:AY62 AS28:AV31 AY2:AY31 AS51:AV52 AS2:AV18 AS54:AV56 AS23:AV25 AS33:AV49" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ31 AZ33:AZ62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ31 AZ33:AZ62" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>$BO$4:$BO$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC33:BC62 BC2:BC31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC33:BC62 BC2:BC31" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>"Error accepted, Error not accepted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:AM16 J10:AM10 J33:AM34 J41:AM41 J2:AM3 J59:AM62 J52:AM55 J21:AM24 J28:AM31 J43:AM47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:AM16 J10:AM10 J33:AM34 J41:AM41 J2:AM3 J59:AM62 J52:AM55 J21:AM24 J28:AM31 J43:AM47" xr:uid="{00000000-0002-0000-0300-000006000000}">
       <formula1>"Yes, No, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X70 J65:V66 J68:V69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X70 J65:V66 J68:V69" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>$G$2:$G$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Percentage figure" sqref="L71:M71 O71:W71 K9:O9 Q9 S9:U9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Percentage figure" sqref="L71:M71 O71:W71 K9:O9 Q9 S9:U9" xr:uid="{00000000-0002-0000-0300-000008000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AO11" r:id="rId1"/>
-    <hyperlink ref="AO4" r:id="rId2"/>
-    <hyperlink ref="AO5" r:id="rId3"/>
-    <hyperlink ref="AO9" r:id="rId4"/>
-    <hyperlink ref="AO6" r:id="rId5"/>
-    <hyperlink ref="AO7" r:id="rId6"/>
-    <hyperlink ref="AO2" r:id="rId7"/>
-    <hyperlink ref="AO30" r:id="rId8"/>
-    <hyperlink ref="AO31" r:id="rId9"/>
-    <hyperlink ref="AO29" r:id="rId10"/>
-    <hyperlink ref="AO28" r:id="rId11"/>
-    <hyperlink ref="AO3" r:id="rId12"/>
-    <hyperlink ref="AO13" r:id="rId13"/>
-    <hyperlink ref="AO12" r:id="rId14"/>
-    <hyperlink ref="AO20" r:id="rId15"/>
-    <hyperlink ref="AO23" r:id="rId16"/>
-    <hyperlink ref="AO24" r:id="rId17"/>
-    <hyperlink ref="AO14" r:id="rId18"/>
+    <hyperlink ref="AO11" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="AO4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="AO5" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="AO9" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="AO6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="AO7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="AO2" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="AO30" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="AO31" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="AO29" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="AO28" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="AO3" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="AO13" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="AO12" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="AO20" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="AO23" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="AO24" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="AO14" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000009000000}">
           <x14:formula1>
             <xm:f>'C:\Governance\supreetha\ICICI Bank Ltd_Governance\[ICICI Bank Ltd_OLD.xlsx]NIC industry'!#REF!</xm:f>
           </x14:formula1>
@@ -29588,43 +29614,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BE22"/>
   <sheetViews>
     <sheetView topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="21.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
     <col min="13" max="18" width="12.5" hidden="1" customWidth="1"/>
     <col min="19" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="5.75" customWidth="1"/>
+    <col min="29" max="29" width="5.69921875" customWidth="1"/>
     <col min="32" max="32" width="11.5" customWidth="1"/>
-    <col min="33" max="33" width="19.25" customWidth="1"/>
+    <col min="33" max="33" width="19.19921875" customWidth="1"/>
     <col min="34" max="34" width="19.5" customWidth="1"/>
-    <col min="35" max="35" width="7.75" customWidth="1"/>
-    <col min="36" max="36" width="6.75" customWidth="1"/>
-    <col min="37" max="37" width="7.25" customWidth="1"/>
-    <col min="38" max="38" width="6.375" customWidth="1"/>
-    <col min="39" max="39" width="32.75" customWidth="1"/>
-    <col min="40" max="40" width="27.75" customWidth="1"/>
-    <col min="41" max="41" width="16.125" style="71" customWidth="1"/>
+    <col min="35" max="35" width="7.69921875" customWidth="1"/>
+    <col min="36" max="36" width="6.69921875" customWidth="1"/>
+    <col min="37" max="37" width="7.19921875" customWidth="1"/>
+    <col min="38" max="38" width="6.3984375" customWidth="1"/>
+    <col min="39" max="39" width="32.69921875" customWidth="1"/>
+    <col min="40" max="40" width="27.69921875" customWidth="1"/>
+    <col min="41" max="41" width="16.09765625" style="71" customWidth="1"/>
     <col min="43" max="43" width="30.5" customWidth="1"/>
     <col min="44" max="44" width="25" customWidth="1"/>
     <col min="45" max="45" width="24.5" customWidth="1"/>
-    <col min="46" max="46" width="24.75" customWidth="1"/>
-    <col min="47" max="47" width="25.75" customWidth="1"/>
-    <col min="48" max="54" width="25.25" customWidth="1"/>
-    <col min="56" max="56" width="29.25" customWidth="1"/>
+    <col min="46" max="46" width="24.69921875" customWidth="1"/>
+    <col min="47" max="47" width="25.69921875" customWidth="1"/>
+    <col min="48" max="54" width="25.19921875" customWidth="1"/>
+    <col min="56" max="56" width="29.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="110" customFormat="1">
@@ -29656,10 +29682,10 @@
         <v>11</v>
       </c>
       <c r="J1" s="124" t="s">
+        <v>932</v>
+      </c>
+      <c r="K1" s="124" t="s">
         <v>933</v>
-      </c>
-      <c r="K1" s="124" t="s">
-        <v>934</v>
       </c>
       <c r="L1" s="121" t="s">
         <v>669</v>
@@ -29782,11 +29808,11 @@
       </c>
       <c r="BA1" s="114"/>
       <c r="BB1" s="114"/>
-      <c r="BC1" s="131" t="s">
+      <c r="BC1" s="134" t="s">
         <v>745</v>
       </c>
-      <c r="BD1" s="131"/>
-      <c r="BE1" s="131"/>
+      <c r="BD1" s="134"/>
+      <c r="BE1" s="134"/>
     </row>
     <row r="2" spans="1:57">
       <c r="A2" s="13" t="s">
@@ -29868,7 +29894,7 @@
         <v>758</v>
       </c>
       <c r="AM2" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AN2" s="22"/>
       <c r="AO2" s="66"/>
@@ -29897,7 +29923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="16.5" thickBot="1">
+    <row r="3" spans="1:57" ht="16.2" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>579</v>
       </c>
@@ -29977,7 +30003,7 @@
         <v>758</v>
       </c>
       <c r="AM3" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AN3" s="22"/>
       <c r="AO3" s="66"/>
@@ -30002,7 +30028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="16.5" thickBot="1">
+    <row r="4" spans="1:57" ht="16.2" thickBot="1">
       <c r="A4" s="13" t="s">
         <v>579</v>
       </c>
@@ -30082,7 +30108,7 @@
         <v>758</v>
       </c>
       <c r="AM4" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AN4" s="22"/>
       <c r="AO4" s="66"/>
@@ -30197,7 +30223,7 @@
         <v>758</v>
       </c>
       <c r="AM5" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AN5" s="22"/>
       <c r="AO5" s="66"/>
@@ -30315,7 +30341,7 @@
         <v>758</v>
       </c>
       <c r="AM6" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AN6" s="22"/>
       <c r="AO6" s="66"/>
@@ -30406,10 +30432,10 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
       <c r="AD7" s="14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AE7" s="14" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AF7" s="14" t="s">
         <v>753</v>
@@ -30433,7 +30459,7 @@
         <v>757</v>
       </c>
       <c r="AM7" s="14" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AN7" s="22"/>
       <c r="AO7" s="66"/>
@@ -30551,7 +30577,7 @@
         <v>758</v>
       </c>
       <c r="AM8" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AN8" s="22"/>
       <c r="AO8" s="66"/>
@@ -30771,7 +30797,7 @@
         <v>758</v>
       </c>
       <c r="AM10" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AN10" s="22"/>
       <c r="AO10" s="66"/>
@@ -30868,7 +30894,7 @@
         <v>756</v>
       </c>
       <c r="AF11" s="21" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AG11" s="76">
         <v>43960</v>
@@ -30889,7 +30915,7 @@
         <v>758</v>
       </c>
       <c r="AM11" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AN11" s="22"/>
       <c r="AO11" s="66"/>
@@ -30956,13 +30982,13 @@
         <v>11</v>
       </c>
       <c r="J12" s="124" t="s">
+        <v>932</v>
+      </c>
+      <c r="K12" s="124" t="s">
         <v>933</v>
       </c>
-      <c r="K12" s="124" t="s">
+      <c r="L12" s="110" t="s">
         <v>934</v>
-      </c>
-      <c r="L12" s="110" t="s">
-        <v>935</v>
       </c>
       <c r="M12" s="92" t="s">
         <v>670</v>
@@ -31181,7 +31207,7 @@
         <v>758</v>
       </c>
       <c r="AM13" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AN13" s="22"/>
       <c r="AO13" s="66"/>
@@ -31295,7 +31321,7 @@
         <v>758</v>
       </c>
       <c r="AM14" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AN14" s="22"/>
       <c r="AO14" s="66"/>
@@ -31327,7 +31353,7 @@
       <c r="BD14" s="14"/>
       <c r="BE14" s="14"/>
     </row>
-    <row r="15" spans="1:57" ht="16.5" thickBot="1">
+    <row r="15" spans="1:57" ht="16.2" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>579</v>
       </c>
@@ -31409,7 +31435,7 @@
         <v>758</v>
       </c>
       <c r="AM15" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AN15" s="22"/>
       <c r="AO15" s="66"/>
@@ -31441,7 +31467,7 @@
       <c r="BD15" s="14"/>
       <c r="BE15" s="14"/>
     </row>
-    <row r="16" spans="1:57" ht="16.5" thickBot="1">
+    <row r="16" spans="1:57" ht="16.2" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>579</v>
       </c>
@@ -31523,7 +31549,7 @@
         <v>758</v>
       </c>
       <c r="AM16" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AN16" s="22"/>
       <c r="AO16" s="66"/>
@@ -31555,7 +31581,7 @@
       <c r="BD16" s="14"/>
       <c r="BE16" s="14"/>
     </row>
-    <row r="17" spans="1:57" ht="16.5" thickBot="1">
+    <row r="17" spans="1:57" ht="16.2" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>579</v>
       </c>
@@ -31637,7 +31663,7 @@
         <v>758</v>
       </c>
       <c r="AM17" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AN17" s="22"/>
       <c r="AO17" s="66"/>
@@ -31723,7 +31749,7 @@
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AE18" s="14"/>
       <c r="AF18" s="14" t="s">
@@ -31748,7 +31774,7 @@
         <v>757</v>
       </c>
       <c r="AM18" s="14" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AN18" s="22"/>
       <c r="AO18" s="66"/>
@@ -31851,7 +31877,7 @@
         <v>758</v>
       </c>
       <c r="AM19" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AN19" s="22"/>
       <c r="AO19" s="66"/>
@@ -32039,7 +32065,7 @@
         <v>758</v>
       </c>
       <c r="AM21" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AN21" s="22"/>
       <c r="AO21" s="66"/>
@@ -32119,7 +32145,7 @@
         <v>765</v>
       </c>
       <c r="AF22" s="59" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AG22" s="76">
         <v>43591</v>
@@ -32140,7 +32166,7 @@
         <v>758</v>
       </c>
       <c r="AM22" s="59" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AN22" s="22"/>
       <c r="AO22" s="66"/>
@@ -32209,37 +32235,37 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:AC10 J21:AC21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:AC10 J21:AC21" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"M, F"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11:AC11 K5 J9:AC9 J20:AC20 L2:AC6 M13:AC17 L22:AC22">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11:AC11 K5 J9:AC9 J20:AC20 L2:AC6 M13:AC17 L22:AC22" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>-99999999</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AL11 AO2:AO11 AO13:AO22 AI13:AL22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AL11 AO2:AO11 AO13:AO22 AI13:AL22" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS11 AS13:AS22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS11 AS13:AS22" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"Error accepted, Error not accepted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP14:AP22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP14:AP22" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>$BD$2:$BD$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:AC8 J18:AC19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:AC8 J18:AC19" xr:uid="{00000000-0002-0000-0400-000005000000}">
       <formula1>"Yes, No, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP11 AP13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP11 AP13" xr:uid="{00000000-0002-0000-0400-000006000000}">
       <formula1>$BD$2:$BD$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AE8" r:id="rId1"/>
-    <hyperlink ref="AE2" r:id="rId2"/>
-    <hyperlink ref="AE3" r:id="rId3"/>
-    <hyperlink ref="AE4" r:id="rId4"/>
-    <hyperlink ref="AE5" r:id="rId5"/>
-    <hyperlink ref="AE6" r:id="rId6"/>
-    <hyperlink ref="AE10" r:id="rId7"/>
-    <hyperlink ref="AE11" r:id="rId8"/>
+    <hyperlink ref="AE8" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="AE2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="AE3" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="AE4" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="AE5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="AE6" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="AE10" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="AE11" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
